--- a/MatlabFiles/data.xlsx
+++ b/MatlabFiles/data.xlsx
@@ -11319,24 +11319,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11346,16 +11346,16 @@
         <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1225</v>
+        <v>152</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1224</v>
+        <v>159</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>154</v>
@@ -11367,13 +11367,13 @@
         <v>156</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>159</v>
+        <v>1225</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>160</v>
+        <v>1224</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>230</v>
@@ -11389,14 +11389,14 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>1094</v>
+      <c r="F2" s="4">
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>511</v>
@@ -11408,13 +11408,13 @@
         <v>808</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>377</v>
+        <v>929</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>929</v>
+      <c r="L2" s="5" t="s">
+        <v>1094</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>161</v>
@@ -11430,14 +11430,14 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
+      <c r="D3" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>1095</v>
+      <c r="F3" s="4">
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>512</v>
@@ -11449,13 +11449,13 @@
         <v>809</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>157</v>
+        <v>930</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>930</v>
+      <c r="L3" s="5" t="s">
+        <v>1095</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>162</v>
@@ -11469,16 +11469,16 @@
         <v>233</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1071</v>
+        <v>377</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>1096</v>
+      <c r="F4" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>513</v>
@@ -11490,13 +11490,13 @@
         <v>455</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>157</v>
+        <v>931</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>931</v>
+        <v>1071</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>1096</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>161</v>
@@ -11512,14 +11512,14 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
+      <c r="D5" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>1097</v>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>514</v>
@@ -11531,13 +11531,13 @@
         <v>810</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>157</v>
+        <v>932</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>932</v>
+      <c r="L5" s="5" t="s">
+        <v>1097</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>163</v>
@@ -11553,14 +11553,14 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
+      <c r="D6" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>1098</v>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>515</v>
@@ -11572,13 +11572,13 @@
         <v>811</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>157</v>
+        <v>933</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>933</v>
+      <c r="L6" s="5" t="s">
+        <v>1098</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>164</v>
@@ -11594,14 +11594,14 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
+      <c r="D7" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>1099</v>
+      <c r="F7" s="4">
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>516</v>
@@ -11613,13 +11613,13 @@
         <v>812</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>157</v>
+        <v>934</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>934</v>
+      <c r="L7" s="5" t="s">
+        <v>1099</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>165</v>
@@ -11635,14 +11635,14 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
+      <c r="D8" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>1100</v>
+      <c r="F8" s="4">
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>517</v>
@@ -11654,13 +11654,13 @@
         <v>813</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>157</v>
+        <v>935</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>935</v>
+      <c r="L8" s="5" t="s">
+        <v>1100</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>161</v>
@@ -11676,14 +11676,14 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
+      <c r="D9" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>1101</v>
+      <c r="F9" s="4">
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>518</v>
@@ -11695,13 +11695,13 @@
         <v>812</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>157</v>
+        <v>936</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>936</v>
+      <c r="L9" s="5" t="s">
+        <v>1101</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>161</v>
@@ -11717,14 +11717,14 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
+      <c r="D10" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>1102</v>
+      <c r="F10" s="4">
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>519</v>
@@ -11736,13 +11736,13 @@
         <v>814</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>157</v>
+        <v>937</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>937</v>
+      <c r="L10" s="5" t="s">
+        <v>1102</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>161</v>
@@ -11758,14 +11758,14 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
+      <c r="D11" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>1103</v>
+      <c r="F11" s="4">
+        <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>520</v>
@@ -11777,13 +11777,13 @@
         <v>815</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>157</v>
+        <v>938</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>938</v>
+        <v>1103</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>166</v>
@@ -11799,14 +11799,14 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
+      <c r="D12" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>1104</v>
+      <c r="F12" s="4">
+        <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>521</v>
@@ -11818,13 +11818,13 @@
         <v>816</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>157</v>
+        <v>939</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>939</v>
+        <v>1104</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>167</v>
@@ -11838,16 +11838,16 @@
         <v>242</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1072</v>
+        <v>378</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>394</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1105</v>
+        <v>377</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>522</v>
@@ -11859,13 +11859,13 @@
         <v>817</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>157</v>
+        <v>940</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>377</v>
+        <v>1072</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>940</v>
+        <v>1105</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>168</v>
@@ -11879,16 +11879,16 @@
         <v>243</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1073</v>
+        <v>379</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>379</v>
+        <v>157</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>395</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1106</v>
+        <v>379</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>523</v>
@@ -11900,13 +11900,13 @@
         <v>818</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>157</v>
+        <v>941</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>379</v>
+        <v>1073</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>941</v>
+        <v>1106</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>169</v>
@@ -11920,16 +11920,16 @@
         <v>244</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1074</v>
+        <v>380</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>396</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1107</v>
+        <v>924</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>524</v>
@@ -11941,13 +11941,13 @@
         <v>819</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>157</v>
+        <v>942</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>924</v>
+        <v>1074</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>942</v>
+        <v>1107</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>170</v>
@@ -11961,16 +11961,16 @@
         <v>245</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1075</v>
+        <v>381</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>381</v>
+        <v>157</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>397</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1108</v>
+        <v>381</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>525</v>
@@ -11982,13 +11982,13 @@
         <v>820</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>157</v>
+        <v>943</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>381</v>
+        <v>1075</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>943</v>
+        <v>1108</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>171</v>
@@ -12002,16 +12002,16 @@
         <v>246</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1076</v>
+        <v>378</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>398</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1109</v>
+        <v>377</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>526</v>
@@ -12023,13 +12023,13 @@
         <v>821</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>377</v>
+        <v>944</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>377</v>
+        <v>1076</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>944</v>
+        <v>1109</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>172</v>
@@ -12043,16 +12043,16 @@
         <v>247</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1077</v>
+        <v>382</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>399</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1110</v>
+        <v>383</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>527</v>
@@ -12064,13 +12064,13 @@
         <v>822</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>377</v>
+        <v>945</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>383</v>
+        <v>1077</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>945</v>
+        <v>1110</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>173</v>
@@ -12084,16 +12084,16 @@
         <v>248</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1078</v>
+        <v>383</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>400</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1111</v>
+        <v>383</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>528</v>
@@ -12105,13 +12105,13 @@
         <v>823</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>377</v>
+        <v>946</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>383</v>
+        <v>1078</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>946</v>
+        <v>1111</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>174</v>
@@ -12125,16 +12125,16 @@
         <v>249</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1079</v>
+        <v>378</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>401</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1112</v>
+        <v>378</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>529</v>
@@ -12146,13 +12146,13 @@
         <v>427</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>377</v>
+        <v>947</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>378</v>
+        <v>1079</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>947</v>
+        <v>1112</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>161</v>
@@ -12166,16 +12166,16 @@
         <v>250</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1080</v>
+        <v>377</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>402</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1113</v>
+        <v>382</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>530</v>
@@ -12187,13 +12187,13 @@
         <v>824</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>157</v>
+        <v>948</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>382</v>
+        <v>1080</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>948</v>
+        <v>1113</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>175</v>
@@ -12207,16 +12207,16 @@
         <v>251</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1081</v>
+        <v>381</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>403</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1114</v>
+        <v>925</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>531</v>
@@ -12228,13 +12228,13 @@
         <v>825</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>377</v>
+        <v>949</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>925</v>
+        <v>1081</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>949</v>
+        <v>1114</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>176</v>
@@ -12248,16 +12248,16 @@
         <v>252</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1082</v>
+        <v>382</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>404</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1115</v>
+        <v>382</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>532</v>
@@ -12269,13 +12269,13 @@
         <v>826</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>157</v>
+        <v>950</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>382</v>
+        <v>1082</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>950</v>
+        <v>1115</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>177</v>
@@ -12291,14 +12291,14 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
+      <c r="D24" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>1116</v>
+      <c r="F24" s="4">
+        <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>533</v>
@@ -12310,13 +12310,13 @@
         <v>827</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>157</v>
+        <v>951</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>951</v>
+        <v>1116</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>178</v>
@@ -12332,14 +12332,14 @@
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
+      <c r="D25" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>1117</v>
+      <c r="F25" s="4">
+        <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>534</v>
@@ -12351,13 +12351,13 @@
         <v>828</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>157</v>
+        <v>952</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>952</v>
+        <v>1117</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>179</v>
@@ -12371,16 +12371,16 @@
         <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1083</v>
+        <v>378</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>407</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1118</v>
+        <v>378</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>535</v>
@@ -12392,13 +12392,13 @@
         <v>829</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>157</v>
+        <v>953</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>378</v>
+        <v>1083</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>953</v>
+        <v>1118</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>180</v>
@@ -12412,16 +12412,16 @@
         <v>256</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1083</v>
+        <v>378</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>408</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1119</v>
+        <v>378</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>536</v>
@@ -12433,13 +12433,13 @@
         <v>830</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>157</v>
+        <v>954</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>378</v>
+        <v>1083</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>954</v>
+        <v>1119</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>161</v>
@@ -12453,16 +12453,16 @@
         <v>257</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1074</v>
+        <v>378</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1120</v>
+        <v>378</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>537</v>
@@ -12474,13 +12474,13 @@
         <v>831</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>157</v>
+        <v>955</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>378</v>
+        <v>1074</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>181</v>
@@ -12496,14 +12496,14 @@
       <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="D29" s="4">
-        <v>0</v>
+      <c r="D29" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>1121</v>
+      <c r="F29" s="4">
+        <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>538</v>
@@ -12515,13 +12515,13 @@
         <v>832</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>157</v>
+        <v>956</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>956</v>
+        <v>1121</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>171</v>
@@ -12537,14 +12537,14 @@
       <c r="C30" s="4">
         <v>0</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
+      <c r="D30" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>1122</v>
+      <c r="F30" s="4">
+        <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>539</v>
@@ -12556,13 +12556,13 @@
         <v>833</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>157</v>
+        <v>957</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>957</v>
+        <v>1122</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>161</v>
@@ -12578,14 +12578,14 @@
       <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="4">
-        <v>0</v>
+      <c r="D31" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>1123</v>
+      <c r="F31" s="4">
+        <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>540</v>
@@ -12597,13 +12597,13 @@
         <v>834</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>377</v>
+        <v>958</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>958</v>
+        <v>1123</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>182</v>
@@ -12617,16 +12617,16 @@
         <v>261</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1077</v>
+        <v>378</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>413</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1124</v>
+        <v>378</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>541</v>
@@ -12638,13 +12638,13 @@
         <v>826</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>157</v>
+        <v>959</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>378</v>
+        <v>1077</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>959</v>
+        <v>1124</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>183</v>
@@ -12658,16 +12658,16 @@
         <v>262</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1084</v>
+        <v>377</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>414</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1125</v>
+        <v>382</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>542</v>
@@ -12679,13 +12679,13 @@
         <v>835</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>157</v>
+        <v>960</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>382</v>
+        <v>1084</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>960</v>
+        <v>1125</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>184</v>
@@ -12701,14 +12701,14 @@
       <c r="C34" s="4">
         <v>0</v>
       </c>
-      <c r="D34" s="4">
-        <v>0</v>
+      <c r="D34" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>1126</v>
+      <c r="F34" s="4">
+        <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>543</v>
@@ -12720,13 +12720,13 @@
         <v>836</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>157</v>
+        <v>961</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>961</v>
+        <v>1126</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>185</v>
@@ -12742,14 +12742,14 @@
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="4">
-        <v>0</v>
+      <c r="D35" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>1127</v>
+      <c r="F35" s="4">
+        <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>544</v>
@@ -12761,13 +12761,13 @@
         <v>837</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>157</v>
+        <v>962</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>962</v>
+        <v>1127</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>161</v>
@@ -12781,16 +12781,16 @@
         <v>265</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1080</v>
+        <v>378</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>417</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1128</v>
+        <v>377</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>545</v>
@@ -12802,13 +12802,13 @@
         <v>838</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>157</v>
+        <v>963</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>377</v>
+        <v>1080</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>963</v>
+        <v>1128</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>186</v>
@@ -12824,14 +12824,14 @@
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
+      <c r="D37" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>418</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1129</v>
+        <v>378</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>546</v>
@@ -12843,13 +12843,13 @@
         <v>839</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>378</v>
+        <v>964</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>964</v>
+        <v>1129</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>187</v>
@@ -12865,14 +12865,14 @@
       <c r="C38" s="4">
         <v>0</v>
       </c>
-      <c r="D38" s="4">
-        <v>0</v>
+      <c r="D38" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>1130</v>
+      <c r="F38" s="4">
+        <v>0</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>547</v>
@@ -12884,13 +12884,13 @@
         <v>840</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>157</v>
+        <v>965</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>965</v>
+        <v>1130</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -12904,16 +12904,16 @@
         <v>268</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1085</v>
+        <v>378</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1131</v>
+        <v>377</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>548</v>
@@ -12925,13 +12925,13 @@
         <v>841</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>157</v>
+        <v>966</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>377</v>
+        <v>1085</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>966</v>
+        <v>1131</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>188</v>
@@ -12947,14 +12947,14 @@
       <c r="C40" s="4">
         <v>0</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
+      <c r="D40" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>1132</v>
+      <c r="F40" s="4">
+        <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>549</v>
@@ -12966,13 +12966,13 @@
         <v>842</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>157</v>
+        <v>967</v>
       </c>
       <c r="K40" s="4">
         <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>967</v>
+        <v>1132</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>189</v>
@@ -12988,14 +12988,14 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="4">
-        <v>0</v>
+      <c r="D41" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>1121</v>
+      <c r="F41" s="4">
+        <v>0</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>550</v>
@@ -13007,13 +13007,13 @@
         <v>843</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>157</v>
+        <v>968</v>
       </c>
       <c r="K41" s="4">
         <v>0</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>968</v>
+        <v>1121</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>166</v>
@@ -13029,14 +13029,14 @@
       <c r="C42" s="4">
         <v>0</v>
       </c>
-      <c r="D42" s="4">
-        <v>0</v>
+      <c r="D42" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>1133</v>
+      <c r="F42" s="4">
+        <v>0</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>551</v>
@@ -13048,13 +13048,13 @@
         <v>844</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>157</v>
+        <v>969</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>969</v>
+        <v>1133</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>190</v>
@@ -13068,16 +13068,16 @@
         <v>272</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1086</v>
+        <v>378</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>424</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1134</v>
+        <v>382</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>552</v>
@@ -13089,13 +13089,13 @@
         <v>845</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>157</v>
+        <v>970</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>382</v>
+        <v>1086</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>970</v>
+        <v>1134</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>191</v>
@@ -13111,14 +13111,14 @@
       <c r="C44" s="4">
         <v>0</v>
       </c>
-      <c r="D44" s="4">
-        <v>0</v>
+      <c r="D44" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>425</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1135</v>
+        <v>382</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>553</v>
@@ -13130,13 +13130,13 @@
         <v>838</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>382</v>
+        <v>971</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>971</v>
+        <v>1135</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>161</v>
@@ -13152,14 +13152,14 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="4">
-        <v>0</v>
+      <c r="D45" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>1136</v>
+      <c r="F45" s="4">
+        <v>0</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>554</v>
@@ -13171,13 +13171,13 @@
         <v>846</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>157</v>
+        <v>972</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>972</v>
+        <v>1136</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>192</v>
@@ -13193,14 +13193,14 @@
       <c r="C46" s="4">
         <v>0</v>
       </c>
-      <c r="D46" s="4">
-        <v>0</v>
+      <c r="D46" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>1137</v>
+      <c r="F46" s="4">
+        <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>555</v>
@@ -13212,13 +13212,13 @@
         <v>847</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>157</v>
+        <v>973</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>973</v>
+        <v>1137</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>193</v>
@@ -13232,16 +13232,16 @@
         <v>276</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1074</v>
+        <v>378</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>410</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1138</v>
+        <v>377</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>556</v>
@@ -13253,13 +13253,13 @@
         <v>848</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>157</v>
+        <v>974</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>377</v>
+        <v>1074</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>974</v>
+        <v>1138</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>161</v>
@@ -13275,14 +13275,14 @@
       <c r="C48" s="4">
         <v>0</v>
       </c>
-      <c r="D48" s="4">
-        <v>0</v>
+      <c r="D48" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>1139</v>
+      <c r="F48" s="4">
+        <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>557</v>
@@ -13294,13 +13294,13 @@
         <v>849</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>157</v>
+        <v>975</v>
       </c>
       <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>975</v>
+        <v>1139</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>194</v>
@@ -13316,14 +13316,14 @@
       <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="4">
-        <v>0</v>
+      <c r="D49" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>1140</v>
+      <c r="F49" s="4">
+        <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>558</v>
@@ -13335,13 +13335,13 @@
         <v>850</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>157</v>
+        <v>976</v>
       </c>
       <c r="K49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>976</v>
+        <v>1140</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>195</v>
@@ -13357,14 +13357,14 @@
       <c r="C50" s="4">
         <v>0</v>
       </c>
-      <c r="D50" s="4">
-        <v>0</v>
+      <c r="D50" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1141</v>
+      <c r="F50" s="4">
+        <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>559</v>
@@ -13376,13 +13376,13 @@
         <v>851</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>157</v>
+        <v>977</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>977</v>
+        <v>1141</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>161</v>
@@ -13398,14 +13398,14 @@
       <c r="C51" s="4">
         <v>0</v>
       </c>
-      <c r="D51" s="4">
-        <v>0</v>
+      <c r="D51" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>1142</v>
+      <c r="F51" s="4">
+        <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>560</v>
@@ -13417,13 +13417,13 @@
         <v>852</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>157</v>
+        <v>978</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>978</v>
+        <v>1142</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>196</v>
@@ -13439,14 +13439,14 @@
       <c r="C52" s="4">
         <v>0</v>
       </c>
-      <c r="D52" s="4">
-        <v>0</v>
+      <c r="D52" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>1143</v>
+      <c r="F52" s="4">
+        <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>561</v>
@@ -13458,13 +13458,13 @@
         <v>853</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>157</v>
+        <v>979</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>979</v>
+        <v>1143</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>197</v>
@@ -13478,16 +13478,16 @@
         <v>282</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1078</v>
+        <v>378</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>433</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1144</v>
+        <v>378</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>562</v>
@@ -13499,13 +13499,13 @@
         <v>854</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>157</v>
+        <v>980</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>378</v>
+        <v>1078</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>980</v>
+        <v>1144</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>198</v>
@@ -13521,14 +13521,14 @@
       <c r="C54" s="4">
         <v>0</v>
       </c>
-      <c r="D54" s="4">
-        <v>0</v>
+      <c r="D54" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>1145</v>
+      <c r="F54" s="4">
+        <v>0</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>563</v>
@@ -13540,13 +13540,13 @@
         <v>855</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>157</v>
+        <v>981</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>981</v>
+        <v>1145</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>199</v>
@@ -13562,14 +13562,14 @@
       <c r="C55" s="4">
         <v>0</v>
       </c>
-      <c r="D55" s="4">
-        <v>0</v>
+      <c r="D55" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>1146</v>
+      <c r="F55" s="4">
+        <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>564</v>
@@ -13581,13 +13581,13 @@
         <v>856</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>157</v>
+        <v>982</v>
       </c>
       <c r="K55" s="4">
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>982</v>
+        <v>1146</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>200</v>
@@ -13601,16 +13601,16 @@
         <v>285</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1087</v>
+        <v>377</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>429</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1147</v>
+        <v>377</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>565</v>
@@ -13622,13 +13622,13 @@
         <v>857</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>157</v>
+        <v>983</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>377</v>
+        <v>1087</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>983</v>
+        <v>1147</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>201</v>
@@ -13644,14 +13644,14 @@
       <c r="C57" s="4">
         <v>0</v>
       </c>
-      <c r="D57" s="4">
-        <v>0</v>
+      <c r="D57" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>1148</v>
+      <c r="F57" s="4">
+        <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>566</v>
@@ -13663,13 +13663,13 @@
         <v>858</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>157</v>
+        <v>984</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>984</v>
+        <v>1148</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>161</v>
@@ -13685,14 +13685,14 @@
       <c r="C58" s="4">
         <v>0</v>
       </c>
-      <c r="D58" s="4">
-        <v>0</v>
+      <c r="D58" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>1149</v>
+      <c r="F58" s="4">
+        <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>567</v>
@@ -13704,13 +13704,13 @@
         <v>859</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>157</v>
+        <v>985</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>985</v>
+        <v>1149</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>202</v>
@@ -13726,14 +13726,14 @@
       <c r="C59" s="4">
         <v>0</v>
       </c>
-      <c r="D59" s="4">
-        <v>0</v>
+      <c r="D59" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>438</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1150</v>
+        <v>377</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>568</v>
@@ -13745,13 +13745,13 @@
         <v>860</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>377</v>
+        <v>986</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>986</v>
+        <v>1150</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>203</v>
@@ -13765,16 +13765,16 @@
         <v>289</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1088</v>
+        <v>378</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>439</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>1151</v>
+        <v>378</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>569</v>
@@ -13786,13 +13786,13 @@
         <v>861</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>157</v>
+        <v>987</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>378</v>
+        <v>1088</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>987</v>
+        <v>1151</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>161</v>
@@ -13808,14 +13808,14 @@
       <c r="C61" s="4">
         <v>0</v>
       </c>
-      <c r="D61" s="4">
-        <v>0</v>
+      <c r="D61" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>1146</v>
+      <c r="F61" s="4">
+        <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>570</v>
@@ -13827,13 +13827,13 @@
         <v>862</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>157</v>
+        <v>988</v>
       </c>
       <c r="K61" s="4">
         <v>0</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>988</v>
+        <v>1146</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>161</v>
@@ -13847,16 +13847,16 @@
         <v>291</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1078</v>
+        <v>378</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>441</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>1152</v>
+        <v>378</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>571</v>
@@ -13868,13 +13868,13 @@
         <v>846</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>157</v>
+        <v>989</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>378</v>
+        <v>1078</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>989</v>
+        <v>1152</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>195</v>
@@ -13890,14 +13890,14 @@
       <c r="C63" s="4">
         <v>0</v>
       </c>
-      <c r="D63" s="4">
-        <v>0</v>
+      <c r="D63" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>1153</v>
+      <c r="F63" s="4">
+        <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>572</v>
@@ -13909,13 +13909,13 @@
         <v>863</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>157</v>
+        <v>990</v>
       </c>
       <c r="K63" s="4">
         <v>0</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>990</v>
+        <v>1153</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>204</v>
@@ -13929,16 +13929,16 @@
         <v>293</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1088</v>
+        <v>378</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>443</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>1154</v>
+        <v>377</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>573</v>
@@ -13950,13 +13950,13 @@
         <v>864</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>157</v>
+        <v>991</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>377</v>
+        <v>1088</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>991</v>
+        <v>1154</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>205</v>
@@ -13970,16 +13970,16 @@
         <v>294</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1089</v>
+        <v>378</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>444</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>1155</v>
+        <v>378</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>574</v>
@@ -13991,13 +13991,13 @@
         <v>865</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>157</v>
+        <v>992</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>378</v>
+        <v>1089</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>992</v>
+        <v>1155</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>161</v>
@@ -14013,14 +14013,14 @@
       <c r="C66" s="4">
         <v>0</v>
       </c>
-      <c r="D66" s="4">
-        <v>0</v>
+      <c r="D66" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>1156</v>
+      <c r="F66" s="4">
+        <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>575</v>
@@ -14032,13 +14032,13 @@
         <v>866</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>157</v>
+        <v>993</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>993</v>
+        <v>1156</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>161</v>
@@ -14054,14 +14054,14 @@
       <c r="C67" s="4">
         <v>0</v>
       </c>
-      <c r="D67" s="4">
-        <v>0</v>
+      <c r="D67" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>1157</v>
+      <c r="F67" s="4">
+        <v>0</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>576</v>
@@ -14073,13 +14073,13 @@
         <v>867</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>157</v>
+        <v>994</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>994</v>
+        <v>1157</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>206</v>
@@ -14093,16 +14093,16 @@
         <v>297</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1090</v>
+        <v>377</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>447</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>1158</v>
+        <v>377</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>577</v>
@@ -14114,13 +14114,13 @@
         <v>808</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>157</v>
+        <v>995</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>377</v>
+        <v>1090</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>995</v>
+        <v>1158</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>207</v>
@@ -14136,14 +14136,14 @@
       <c r="C69" s="4">
         <v>0</v>
       </c>
-      <c r="D69" s="4">
-        <v>0</v>
+      <c r="D69" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>1159</v>
+      <c r="F69" s="4">
+        <v>0</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>578</v>
@@ -14155,13 +14155,13 @@
         <v>868</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>157</v>
+        <v>996</v>
       </c>
       <c r="K69" s="4">
         <v>0</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>996</v>
+        <v>1159</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>161</v>
@@ -14177,14 +14177,14 @@
       <c r="C70" s="4">
         <v>0</v>
       </c>
-      <c r="D70" s="4">
-        <v>0</v>
+      <c r="D70" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>1160</v>
+      <c r="F70" s="4">
+        <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>579</v>
@@ -14196,13 +14196,13 @@
         <v>869</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>157</v>
+        <v>997</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>997</v>
+        <v>1160</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>208</v>
@@ -14216,16 +14216,16 @@
         <v>300</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1091</v>
+        <v>378</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>450</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>1161</v>
+        <v>378</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>580</v>
@@ -14237,13 +14237,13 @@
         <v>870</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>157</v>
+        <v>998</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>378</v>
+        <v>1091</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>998</v>
+        <v>1161</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>182</v>
@@ -14259,14 +14259,14 @@
       <c r="C72" s="4">
         <v>0</v>
       </c>
-      <c r="D72" s="4">
-        <v>0</v>
+      <c r="D72" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>1162</v>
+      <c r="F72" s="4">
+        <v>0</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>581</v>
@@ -14278,13 +14278,13 @@
         <v>871</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>157</v>
+        <v>999</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>999</v>
+        <v>1162</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>161</v>
@@ -14300,14 +14300,14 @@
       <c r="C73" s="4">
         <v>0</v>
       </c>
-      <c r="D73" s="4">
-        <v>0</v>
+      <c r="D73" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>1163</v>
+      <c r="F73" s="4">
+        <v>0</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>582</v>
@@ -14319,13 +14319,13 @@
         <v>872</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>157</v>
+        <v>1000</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>1000</v>
+        <v>1163</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>161</v>
@@ -14341,14 +14341,14 @@
       <c r="C74" s="4">
         <v>0</v>
       </c>
-      <c r="D74" s="4">
-        <v>0</v>
+      <c r="D74" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>1152</v>
+      <c r="F74" s="4">
+        <v>0</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>583</v>
@@ -14360,13 +14360,13 @@
         <v>873</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>157</v>
+        <v>1001</v>
       </c>
       <c r="K74" s="4">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>1001</v>
+        <v>1152</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>209</v>
@@ -14382,14 +14382,14 @@
       <c r="C75" s="4">
         <v>0</v>
       </c>
-      <c r="D75" s="4">
-        <v>0</v>
+      <c r="D75" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>1164</v>
+      <c r="F75" s="4">
+        <v>0</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>584</v>
@@ -14401,13 +14401,13 @@
         <v>874</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>157</v>
+        <v>1002</v>
       </c>
       <c r="K75" s="4">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>1002</v>
+        <v>1164</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>161</v>
@@ -14421,16 +14421,16 @@
         <v>305</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1078</v>
+        <v>378</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>454</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1111</v>
+        <v>378</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>585</v>
@@ -14442,13 +14442,13 @@
         <v>875</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>157</v>
+        <v>1003</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>378</v>
+        <v>1078</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>1003</v>
+        <v>1111</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>210</v>
@@ -14464,14 +14464,14 @@
       <c r="C77" s="4">
         <v>0</v>
       </c>
-      <c r="D77" s="4">
-        <v>0</v>
+      <c r="D77" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>1148</v>
+      <c r="F77" s="4">
+        <v>0</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>586</v>
@@ -14483,13 +14483,13 @@
         <v>876</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>157</v>
+        <v>1004</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>1004</v>
+        <v>1148</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>161</v>
@@ -14505,14 +14505,14 @@
       <c r="C78" s="4">
         <v>0</v>
       </c>
-      <c r="D78" s="4">
-        <v>0</v>
+      <c r="D78" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>1165</v>
+      <c r="F78" s="4">
+        <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>587</v>
@@ -14524,13 +14524,13 @@
         <v>877</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>157</v>
+        <v>1005</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>1005</v>
+        <v>1165</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>161</v>
@@ -14544,16 +14544,16 @@
         <v>308</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1091</v>
+        <v>378</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>457</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1166</v>
+        <v>378</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>588</v>
@@ -14565,13 +14565,13 @@
         <v>878</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>157</v>
+        <v>1006</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>378</v>
+        <v>1091</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>1006</v>
+        <v>1166</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>161</v>
@@ -14587,14 +14587,14 @@
       <c r="C80" s="4">
         <v>0</v>
       </c>
-      <c r="D80" s="4">
-        <v>0</v>
+      <c r="D80" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>1167</v>
+      <c r="F80" s="4">
+        <v>0</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>589</v>
@@ -14606,13 +14606,13 @@
         <v>869</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>157</v>
+        <v>1007</v>
       </c>
       <c r="K80" s="4">
         <v>0</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>1007</v>
+        <v>1167</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>211</v>
@@ -14628,14 +14628,14 @@
       <c r="C81" s="4">
         <v>0</v>
       </c>
-      <c r="D81" s="4">
-        <v>0</v>
+      <c r="D81" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>1168</v>
+      <c r="F81" s="4">
+        <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>590</v>
@@ -14647,13 +14647,13 @@
         <v>854</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>157</v>
+        <v>1008</v>
       </c>
       <c r="K81" s="4">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>1008</v>
+        <v>1168</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>161</v>
@@ -14669,14 +14669,14 @@
       <c r="C82" s="4">
         <v>0</v>
       </c>
-      <c r="D82" s="4">
-        <v>0</v>
+      <c r="D82" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>1169</v>
+      <c r="F82" s="4">
+        <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>591</v>
@@ -14688,13 +14688,13 @@
         <v>828</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>157</v>
+        <v>990</v>
       </c>
       <c r="K82" s="4">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>990</v>
+        <v>1169</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>212</v>
@@ -14710,14 +14710,14 @@
       <c r="C83" s="4">
         <v>0</v>
       </c>
-      <c r="D83" s="4">
-        <v>0</v>
+      <c r="D83" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>1170</v>
+      <c r="F83" s="4">
+        <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>592</v>
@@ -14729,13 +14729,13 @@
         <v>843</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>157</v>
+        <v>1009</v>
       </c>
       <c r="K83" s="4">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>1009</v>
+        <v>1170</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>213</v>
@@ -14751,14 +14751,14 @@
       <c r="C84" s="4">
         <v>0</v>
       </c>
-      <c r="D84" s="4">
-        <v>0</v>
+      <c r="D84" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>1171</v>
+      <c r="F84" s="4">
+        <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>593</v>
@@ -14770,13 +14770,13 @@
         <v>879</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>157</v>
+        <v>1010</v>
       </c>
       <c r="K84" s="4">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>1010</v>
+        <v>1171</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>161</v>
@@ -14792,14 +14792,14 @@
       <c r="C85" s="4">
         <v>0</v>
       </c>
-      <c r="D85" s="4">
-        <v>0</v>
+      <c r="D85" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>1172</v>
+      <c r="F85" s="4">
+        <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>594</v>
@@ -14811,13 +14811,13 @@
         <v>880</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>157</v>
+        <v>1011</v>
       </c>
       <c r="K85" s="4">
         <v>0</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>1011</v>
+        <v>1172</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>210</v>
@@ -14833,14 +14833,14 @@
       <c r="C86" s="4">
         <v>0</v>
       </c>
-      <c r="D86" s="4">
-        <v>0</v>
+      <c r="D86" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>1173</v>
+      <c r="F86" s="4">
+        <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>595</v>
@@ -14852,13 +14852,13 @@
         <v>881</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>157</v>
+        <v>1012</v>
       </c>
       <c r="K86" s="4">
         <v>0</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>1012</v>
+        <v>1173</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>214</v>
@@ -14874,14 +14874,14 @@
       <c r="C87" s="4">
         <v>0</v>
       </c>
-      <c r="D87" s="4">
-        <v>0</v>
+      <c r="D87" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>1174</v>
+      <c r="F87" s="4">
+        <v>0</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>596</v>
@@ -14893,13 +14893,13 @@
         <v>882</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>157</v>
+        <v>1013</v>
       </c>
       <c r="K87" s="4">
         <v>0</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>1013</v>
+        <v>1174</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>173</v>
@@ -14915,14 +14915,14 @@
       <c r="C88" s="4">
         <v>0</v>
       </c>
-      <c r="D88" s="4">
-        <v>0</v>
+      <c r="D88" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>1175</v>
+      <c r="F88" s="4">
+        <v>0</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>597</v>
@@ -14934,13 +14934,13 @@
         <v>883</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>157</v>
+        <v>1014</v>
       </c>
       <c r="K88" s="4">
         <v>0</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>1014</v>
+        <v>1175</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>193</v>
@@ -14956,14 +14956,14 @@
       <c r="C89" s="4">
         <v>0</v>
       </c>
-      <c r="D89" s="4">
-        <v>0</v>
+      <c r="D89" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>1176</v>
+      <c r="F89" s="4">
+        <v>0</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>598</v>
@@ -14975,13 +14975,13 @@
         <v>814</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>157</v>
+        <v>1015</v>
       </c>
       <c r="K89" s="4">
         <v>0</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>1015</v>
+        <v>1176</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>215</v>
@@ -14997,14 +14997,14 @@
       <c r="C90" s="4">
         <v>0</v>
       </c>
-      <c r="D90" s="4">
-        <v>0</v>
+      <c r="D90" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>1177</v>
+      <c r="F90" s="4">
+        <v>0</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>599</v>
@@ -15016,13 +15016,13 @@
         <v>816</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>157</v>
+        <v>1016</v>
       </c>
       <c r="K90" s="4">
         <v>0</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>1016</v>
+        <v>1177</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>216</v>
@@ -15038,14 +15038,14 @@
       <c r="C91" s="4">
         <v>0</v>
       </c>
-      <c r="D91" s="4">
-        <v>0</v>
+      <c r="D91" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>1178</v>
+      <c r="F91" s="4">
+        <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>600</v>
@@ -15057,13 +15057,13 @@
         <v>884</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>157</v>
+        <v>1017</v>
       </c>
       <c r="K91" s="4">
         <v>0</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>1017</v>
+        <v>1178</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>217</v>
@@ -15079,14 +15079,14 @@
       <c r="C92" s="4">
         <v>0</v>
       </c>
-      <c r="D92" s="4">
-        <v>0</v>
+      <c r="D92" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>1151</v>
+      <c r="F92" s="4">
+        <v>0</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>601</v>
@@ -15098,13 +15098,13 @@
         <v>885</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>157</v>
+        <v>1018</v>
       </c>
       <c r="K92" s="4">
         <v>0</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>1018</v>
+        <v>1151</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>218</v>
@@ -15120,14 +15120,14 @@
       <c r="C93" s="4">
         <v>0</v>
       </c>
-      <c r="D93" s="4">
-        <v>0</v>
+      <c r="D93" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>1179</v>
+      <c r="F93" s="4">
+        <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>602</v>
@@ -15139,13 +15139,13 @@
         <v>845</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>157</v>
+        <v>1019</v>
       </c>
       <c r="K93" s="4">
         <v>0</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>1019</v>
+        <v>1179</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>161</v>
@@ -15161,14 +15161,14 @@
       <c r="C94" s="4">
         <v>0</v>
       </c>
-      <c r="D94" s="4">
-        <v>0</v>
+      <c r="D94" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>1180</v>
+      <c r="F94" s="4">
+        <v>0</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>603</v>
@@ -15180,13 +15180,13 @@
         <v>886</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>157</v>
+        <v>1020</v>
       </c>
       <c r="K94" s="4">
         <v>0</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>1020</v>
+        <v>1180</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>219</v>
@@ -15202,14 +15202,14 @@
       <c r="C95" s="4">
         <v>0</v>
       </c>
-      <c r="D95" s="4">
-        <v>0</v>
+      <c r="D95" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>1181</v>
+      <c r="F95" s="4">
+        <v>0</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>604</v>
@@ -15221,13 +15221,13 @@
         <v>887</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>377</v>
+        <v>1021</v>
       </c>
       <c r="K95" s="4">
         <v>0</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>1021</v>
+        <v>1181</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>161</v>
@@ -15241,16 +15241,16 @@
         <v>325</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1085</v>
+        <v>378</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>470</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1176</v>
+        <v>378</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>605</v>
@@ -15262,13 +15262,13 @@
         <v>888</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>157</v>
+        <v>1022</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>378</v>
+        <v>1085</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>1022</v>
+        <v>1176</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>196</v>
@@ -15284,14 +15284,14 @@
       <c r="C97" s="4">
         <v>0</v>
       </c>
-      <c r="D97" s="4">
-        <v>0</v>
+      <c r="D97" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>1182</v>
+      <c r="F97" s="4">
+        <v>0</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>606</v>
@@ -15303,13 +15303,13 @@
         <v>889</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>157</v>
+        <v>1023</v>
       </c>
       <c r="K97" s="4">
         <v>0</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>1023</v>
+        <v>1182</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>200</v>
@@ -15325,14 +15325,14 @@
       <c r="C98" s="4">
         <v>0</v>
       </c>
-      <c r="D98" s="4">
-        <v>0</v>
+      <c r="D98" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>1183</v>
+      <c r="F98" s="4">
+        <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>607</v>
@@ -15344,13 +15344,13 @@
         <v>890</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>157</v>
+        <v>1024</v>
       </c>
       <c r="K98" s="4">
         <v>0</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>1024</v>
+        <v>1183</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>161</v>
@@ -15366,14 +15366,14 @@
       <c r="C99" s="4">
         <v>0</v>
       </c>
-      <c r="D99" s="4">
-        <v>0</v>
+      <c r="D99" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>1184</v>
+      <c r="F99" s="4">
+        <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>608</v>
@@ -15385,13 +15385,13 @@
         <v>891</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>157</v>
+        <v>1025</v>
       </c>
       <c r="K99" s="4">
         <v>0</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>1025</v>
+        <v>1184</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>220</v>
@@ -15407,14 +15407,14 @@
       <c r="C100" s="4">
         <v>0</v>
       </c>
-      <c r="D100" s="4">
-        <v>0</v>
+      <c r="D100" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>1185</v>
+      <c r="F100" s="4">
+        <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>609</v>
@@ -15426,13 +15426,13 @@
         <v>851</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>377</v>
+        <v>1026</v>
       </c>
       <c r="K100" s="4">
         <v>0</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>1026</v>
+        <v>1185</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>161</v>
@@ -15446,16 +15446,16 @@
         <v>329</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1082</v>
+        <v>378</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>475</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1184</v>
+        <v>378</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>610</v>
@@ -15467,13 +15467,13 @@
         <v>892</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>157</v>
+        <v>1027</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>378</v>
+        <v>1082</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1027</v>
+        <v>1184</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>221</v>
@@ -15487,16 +15487,16 @@
         <v>330</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1072</v>
+        <v>378</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>476</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>1186</v>
+        <v>377</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>611</v>
@@ -15508,13 +15508,13 @@
         <v>893</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>157</v>
+        <v>1028</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>377</v>
+        <v>1072</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1028</v>
+        <v>1186</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>175</v>
@@ -15530,14 +15530,14 @@
       <c r="C103" s="4">
         <v>0</v>
       </c>
-      <c r="D103" s="4">
-        <v>0</v>
+      <c r="D103" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>1187</v>
+      <c r="F103" s="4">
+        <v>0</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>612</v>
@@ -15549,13 +15549,13 @@
         <v>817</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>157</v>
+        <v>1029</v>
       </c>
       <c r="K103" s="4">
         <v>0</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>1029</v>
+        <v>1187</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>166</v>
@@ -15571,14 +15571,14 @@
       <c r="C104" s="4">
         <v>0</v>
       </c>
-      <c r="D104" s="4">
-        <v>0</v>
+      <c r="D104" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>1188</v>
+      <c r="F104" s="4">
+        <v>0</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>613</v>
@@ -15590,13 +15590,13 @@
         <v>814</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>157</v>
+        <v>1030</v>
       </c>
       <c r="K104" s="4">
         <v>0</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1030</v>
+        <v>1188</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>222</v>
@@ -15612,14 +15612,14 @@
       <c r="C105" s="4">
         <v>0</v>
       </c>
-      <c r="D105" s="4">
-        <v>0</v>
+      <c r="D105" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>1189</v>
+      <c r="F105" s="4">
+        <v>0</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>614</v>
@@ -15631,13 +15631,13 @@
         <v>894</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>157</v>
+        <v>1031</v>
       </c>
       <c r="K105" s="4">
         <v>0</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>1031</v>
+        <v>1189</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>203</v>
@@ -15653,14 +15653,14 @@
       <c r="C106" s="4">
         <v>0</v>
       </c>
-      <c r="D106" s="4">
-        <v>0</v>
+      <c r="D106" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>1190</v>
+      <c r="F106" s="4">
+        <v>0</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>615</v>
@@ -15672,13 +15672,13 @@
         <v>861</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>157</v>
+        <v>1032</v>
       </c>
       <c r="K106" s="4">
         <v>0</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>1032</v>
+        <v>1190</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>223</v>
@@ -15694,14 +15694,14 @@
       <c r="C107" s="4">
         <v>0</v>
       </c>
-      <c r="D107" s="4">
-        <v>0</v>
+      <c r="D107" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>1191</v>
+      <c r="F107" s="4">
+        <v>0</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>616</v>
@@ -15713,13 +15713,13 @@
         <v>895</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>157</v>
+        <v>1033</v>
       </c>
       <c r="K107" s="4">
         <v>0</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>1033</v>
+        <v>1191</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>224</v>
@@ -15735,14 +15735,14 @@
       <c r="C108" s="4">
         <v>0</v>
       </c>
-      <c r="D108" s="4">
-        <v>0</v>
+      <c r="D108" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>1144</v>
+      <c r="F108" s="4">
+        <v>0</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>617</v>
@@ -15754,13 +15754,13 @@
         <v>896</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>157</v>
+        <v>1034</v>
       </c>
       <c r="K108" s="4">
         <v>0</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>1034</v>
+        <v>1144</v>
       </c>
       <c r="M108" s="4" t="s">
         <v>225</v>
@@ -15776,14 +15776,14 @@
       <c r="C109" s="4">
         <v>0</v>
       </c>
-      <c r="D109" s="4">
-        <v>0</v>
+      <c r="D109" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>483</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1097</v>
+        <v>378</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>618</v>
@@ -15795,13 +15795,13 @@
         <v>838</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>378</v>
+        <v>1032</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>1032</v>
+        <v>1097</v>
       </c>
       <c r="M109" s="4" t="s">
         <v>165</v>
@@ -15817,14 +15817,14 @@
       <c r="C110" s="4">
         <v>0</v>
       </c>
-      <c r="D110" s="4">
-        <v>0</v>
+      <c r="D110" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>1192</v>
+      <c r="F110" s="4">
+        <v>0</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>619</v>
@@ -15836,13 +15836,13 @@
         <v>437</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>157</v>
+        <v>1035</v>
       </c>
       <c r="K110" s="4">
         <v>0</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>1035</v>
+        <v>1192</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>226</v>
@@ -15856,16 +15856,16 @@
         <v>339</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1089</v>
+        <v>378</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>485</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1193</v>
+        <v>378</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>620</v>
@@ -15877,13 +15877,13 @@
         <v>897</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>157</v>
+        <v>1036</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>378</v>
+        <v>1089</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>1036</v>
+        <v>1193</v>
       </c>
       <c r="M111" s="4" t="s">
         <v>161</v>
@@ -15897,16 +15897,16 @@
         <v>340</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1086</v>
+        <v>378</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>486</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1194</v>
+        <v>382</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>621</v>
@@ -15918,13 +15918,13 @@
         <v>893</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>157</v>
+        <v>1037</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>382</v>
+        <v>1086</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>1037</v>
+        <v>1194</v>
       </c>
       <c r="M112" s="4" t="s">
         <v>175</v>
@@ -15938,16 +15938,16 @@
         <v>341</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1080</v>
+        <v>378</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>487</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1195</v>
+        <v>378</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>622</v>
@@ -15959,13 +15959,13 @@
         <v>898</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>157</v>
+        <v>1038</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>378</v>
+        <v>1080</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>1038</v>
+        <v>1195</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>161</v>
@@ -15981,14 +15981,14 @@
       <c r="C114" s="4">
         <v>0</v>
       </c>
-      <c r="D114" s="4">
-        <v>0</v>
+      <c r="D114" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>1196</v>
+      <c r="F114" s="4">
+        <v>0</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>623</v>
@@ -16000,13 +16000,13 @@
         <v>899</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>157</v>
+        <v>1039</v>
       </c>
       <c r="K114" s="4">
         <v>0</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>1039</v>
+        <v>1196</v>
       </c>
       <c r="M114" s="4" t="s">
         <v>161</v>
@@ -16022,14 +16022,14 @@
       <c r="C115" s="4">
         <v>0</v>
       </c>
-      <c r="D115" s="4">
-        <v>0</v>
+      <c r="D115" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>1197</v>
+      <c r="F115" s="4">
+        <v>0</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>624</v>
@@ -16041,13 +16041,13 @@
         <v>900</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>157</v>
+        <v>1040</v>
       </c>
       <c r="K115" s="4">
         <v>0</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>1040</v>
+        <v>1197</v>
       </c>
       <c r="M115" s="4" t="s">
         <v>227</v>
@@ -16063,14 +16063,14 @@
       <c r="C116" s="4">
         <v>0</v>
       </c>
-      <c r="D116" s="4">
-        <v>0</v>
+      <c r="D116" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>1198</v>
+      <c r="F116" s="4">
+        <v>0</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>625</v>
@@ -16082,13 +16082,13 @@
         <v>901</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>157</v>
+        <v>1041</v>
       </c>
       <c r="K116" s="4">
         <v>0</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>1041</v>
+        <v>1198</v>
       </c>
       <c r="M116" s="4" t="s">
         <v>161</v>
@@ -16104,14 +16104,14 @@
       <c r="C117" s="4">
         <v>0</v>
       </c>
-      <c r="D117" s="4">
-        <v>0</v>
+      <c r="D117" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>1199</v>
+      <c r="F117" s="4">
+        <v>0</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>626</v>
@@ -16123,13 +16123,13 @@
         <v>902</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>157</v>
+        <v>1042</v>
       </c>
       <c r="K117" s="4">
         <v>0</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>1042</v>
+        <v>1199</v>
       </c>
       <c r="M117" s="4" t="s">
         <v>228</v>
@@ -16145,14 +16145,14 @@
       <c r="C118" s="4">
         <v>0</v>
       </c>
-      <c r="D118" s="4">
-        <v>0</v>
+      <c r="D118" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>1159</v>
+      <c r="F118" s="4">
+        <v>0</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>627</v>
@@ -16164,13 +16164,13 @@
         <v>903</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>157</v>
+        <v>1043</v>
       </c>
       <c r="K118" s="4">
         <v>0</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>1043</v>
+        <v>1159</v>
       </c>
       <c r="M118" s="4" t="s">
         <v>205</v>
@@ -16186,14 +16186,14 @@
       <c r="C119" s="4">
         <v>0</v>
       </c>
-      <c r="D119" s="4">
-        <v>0</v>
+      <c r="D119" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>1138</v>
+      <c r="F119" s="4">
+        <v>0</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>628</v>
@@ -16205,13 +16205,13 @@
         <v>895</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>157</v>
+        <v>1044</v>
       </c>
       <c r="K119" s="4">
         <v>0</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>1044</v>
+        <v>1138</v>
       </c>
       <c r="M119" s="4" t="s">
         <v>229</v>
@@ -16227,14 +16227,14 @@
       <c r="C120" s="4">
         <v>0</v>
       </c>
-      <c r="D120" s="4">
-        <v>0</v>
+      <c r="D120" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>1200</v>
+      <c r="F120" s="4">
+        <v>0</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>629</v>
@@ -16246,13 +16246,13 @@
         <v>904</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>157</v>
+        <v>1045</v>
       </c>
       <c r="K120" s="4">
         <v>0</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>1045</v>
+        <v>1200</v>
       </c>
       <c r="M120" s="4" t="s">
         <v>161</v>
@@ -16268,14 +16268,14 @@
       <c r="C121" s="4">
         <v>0</v>
       </c>
-      <c r="D121" s="4">
-        <v>0</v>
+      <c r="D121" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>1201</v>
+      <c r="F121" s="4">
+        <v>0</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>630</v>
@@ -16287,13 +16287,13 @@
         <v>905</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>377</v>
+        <v>1046</v>
       </c>
       <c r="K121" s="4">
         <v>0</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>1046</v>
+        <v>1201</v>
       </c>
       <c r="M121" s="4" t="s">
         <v>164</v>
@@ -16309,14 +16309,14 @@
       <c r="C122" s="4">
         <v>0</v>
       </c>
-      <c r="D122" s="4">
-        <v>0</v>
+      <c r="D122" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>1202</v>
+      <c r="F122" s="4">
+        <v>0</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>631</v>
@@ -16328,13 +16328,13 @@
         <v>906</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>157</v>
+        <v>1047</v>
       </c>
       <c r="K122" s="4">
         <v>0</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>1047</v>
+        <v>1202</v>
       </c>
       <c r="M122" s="4" t="s">
         <v>161</v>
@@ -16350,14 +16350,14 @@
       <c r="C123" s="4">
         <v>0</v>
       </c>
-      <c r="D123" s="4">
-        <v>0</v>
+      <c r="D123" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>1203</v>
+      <c r="F123" s="4">
+        <v>0</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>632</v>
@@ -16369,13 +16369,13 @@
         <v>847</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>377</v>
+        <v>1048</v>
       </c>
       <c r="K123" s="4">
         <v>0</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1048</v>
+        <v>1203</v>
       </c>
       <c r="M123" s="4">
         <v>0</v>
@@ -16391,14 +16391,14 @@
       <c r="C124" s="4">
         <v>0</v>
       </c>
-      <c r="D124" s="4">
-        <v>0</v>
+      <c r="D124" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>1204</v>
+      <c r="F124" s="4">
+        <v>0</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>633</v>
@@ -16410,13 +16410,13 @@
         <v>907</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>157</v>
+        <v>1014</v>
       </c>
       <c r="K124" s="4">
         <v>0</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>1014</v>
+        <v>1204</v>
       </c>
       <c r="M124" s="4">
         <v>0</v>
@@ -16432,14 +16432,14 @@
       <c r="C125" s="4">
         <v>0</v>
       </c>
-      <c r="D125" s="4">
-        <v>0</v>
+      <c r="D125" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>1205</v>
+      <c r="F125" s="4">
+        <v>0</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>634</v>
@@ -16451,13 +16451,13 @@
         <v>908</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>377</v>
+        <v>1049</v>
       </c>
       <c r="K125" s="4">
         <v>0</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1049</v>
+        <v>1205</v>
       </c>
       <c r="M125" s="4">
         <v>0</v>
@@ -16473,14 +16473,14 @@
       <c r="C126" s="4">
         <v>0</v>
       </c>
-      <c r="D126" s="4">
-        <v>0</v>
+      <c r="D126" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>1206</v>
+      <c r="F126" s="4">
+        <v>0</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>635</v>
@@ -16492,13 +16492,13 @@
         <v>880</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>157</v>
+        <v>1050</v>
       </c>
       <c r="K126" s="4">
         <v>0</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1050</v>
+        <v>1206</v>
       </c>
       <c r="M126" s="4">
         <v>0</v>
@@ -16514,14 +16514,14 @@
       <c r="C127" s="4">
         <v>0</v>
       </c>
-      <c r="D127" s="4">
-        <v>0</v>
+      <c r="D127" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>1207</v>
+      <c r="F127" s="4">
+        <v>0</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>636</v>
@@ -16533,13 +16533,13 @@
         <v>909</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>157</v>
+        <v>1051</v>
       </c>
       <c r="K127" s="4">
         <v>0</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1051</v>
+        <v>1207</v>
       </c>
       <c r="M127" s="4">
         <v>0</v>
@@ -16555,14 +16555,14 @@
       <c r="C128" s="4">
         <v>0</v>
       </c>
-      <c r="D128" s="4">
-        <v>0</v>
+      <c r="D128" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>1208</v>
+      <c r="F128" s="4">
+        <v>0</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>637</v>
@@ -16574,13 +16574,13 @@
         <v>910</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>377</v>
+        <v>1014</v>
       </c>
       <c r="K128" s="4">
         <v>0</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1014</v>
+        <v>1208</v>
       </c>
       <c r="M128" s="4">
         <v>0</v>
@@ -16596,14 +16596,14 @@
       <c r="C129" s="4">
         <v>0</v>
       </c>
-      <c r="D129" s="4">
-        <v>0</v>
+      <c r="D129" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>1209</v>
+      <c r="F129" s="4">
+        <v>0</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>638</v>
@@ -16615,13 +16615,13 @@
         <v>839</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>377</v>
+        <v>1020</v>
       </c>
       <c r="K129" s="4">
         <v>0</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1020</v>
+        <v>1209</v>
       </c>
       <c r="M129" s="4">
         <v>0</v>
@@ -16637,14 +16637,14 @@
       <c r="C130" s="4">
         <v>0</v>
       </c>
-      <c r="D130" s="4">
-        <v>0</v>
+      <c r="D130" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>1210</v>
+      <c r="F130" s="4">
+        <v>0</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>639</v>
@@ -16656,13 +16656,13 @@
         <v>911</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>157</v>
+        <v>1052</v>
       </c>
       <c r="K130" s="4">
         <v>0</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1052</v>
+        <v>1210</v>
       </c>
       <c r="M130" s="4">
         <v>0</v>
@@ -16678,14 +16678,14 @@
       <c r="C131" s="4">
         <v>0</v>
       </c>
-      <c r="D131" s="4">
-        <v>0</v>
+      <c r="D131" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>1211</v>
+      <c r="F131" s="4">
+        <v>0</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>640</v>
@@ -16697,13 +16697,13 @@
         <v>912</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>157</v>
+        <v>1052</v>
       </c>
       <c r="K131" s="4">
         <v>0</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>1052</v>
+        <v>1211</v>
       </c>
       <c r="M131" s="4">
         <v>0</v>
@@ -16717,16 +16717,16 @@
         <v>360</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1071</v>
+        <v>377</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>501</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1212</v>
+        <v>926</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>641</v>
@@ -16738,13 +16738,13 @@
         <v>868</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>157</v>
+        <v>1053</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>926</v>
+        <v>1071</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1053</v>
+        <v>1212</v>
       </c>
       <c r="M132" s="4">
         <v>0</v>
@@ -16760,14 +16760,14 @@
       <c r="C133" s="4">
         <v>0</v>
       </c>
-      <c r="D133" s="4">
-        <v>0</v>
+      <c r="D133" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>1144</v>
+      <c r="F133" s="4">
+        <v>0</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>642</v>
@@ -16779,13 +16779,13 @@
         <v>913</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>377</v>
+        <v>1054</v>
       </c>
       <c r="K133" s="4">
         <v>0</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1054</v>
+        <v>1144</v>
       </c>
       <c r="M133" s="4">
         <v>0</v>
@@ -16801,14 +16801,14 @@
       <c r="C134" s="4">
         <v>0</v>
       </c>
-      <c r="D134" s="4">
-        <v>0</v>
+      <c r="D134" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>1213</v>
+      <c r="F134" s="4">
+        <v>0</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>643</v>
@@ -16820,13 +16820,13 @@
         <v>913</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>157</v>
+        <v>1055</v>
       </c>
       <c r="K134" s="4">
         <v>0</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>1055</v>
+        <v>1213</v>
       </c>
       <c r="M134" s="4">
         <v>0</v>
@@ -16842,14 +16842,14 @@
       <c r="C135" s="4">
         <v>0</v>
       </c>
-      <c r="D135" s="4">
-        <v>0</v>
+      <c r="D135" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>1160</v>
+      <c r="F135" s="4">
+        <v>0</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>644</v>
@@ -16861,13 +16861,13 @@
         <v>914</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>377</v>
+        <v>1056</v>
       </c>
       <c r="K135" s="4">
         <v>0</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>1056</v>
+        <v>1160</v>
       </c>
       <c r="M135" s="4">
         <v>0</v>
@@ -16881,16 +16881,16 @@
         <v>364</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1092</v>
+        <v>377</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>481</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1214</v>
+        <v>377</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>645</v>
@@ -16902,13 +16902,13 @@
         <v>914</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>157</v>
+        <v>1057</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>377</v>
+        <v>1092</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>1057</v>
+        <v>1214</v>
       </c>
       <c r="M136" s="4">
         <v>0</v>
@@ -16924,14 +16924,14 @@
       <c r="C137" s="4">
         <v>0</v>
       </c>
-      <c r="D137" s="4">
-        <v>0</v>
+      <c r="D137" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>1215</v>
+      <c r="F137" s="4">
+        <v>0</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>646</v>
@@ -16943,13 +16943,13 @@
         <v>915</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>157</v>
+        <v>1058</v>
       </c>
       <c r="K137" s="4">
         <v>0</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>1058</v>
+        <v>1215</v>
       </c>
       <c r="M137" s="4">
         <v>0</v>
@@ -16965,14 +16965,14 @@
       <c r="C138" s="4">
         <v>0</v>
       </c>
-      <c r="D138" s="4">
-        <v>0</v>
+      <c r="D138" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>1216</v>
+      <c r="F138" s="4">
+        <v>0</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>647</v>
@@ -16984,13 +16984,13 @@
         <v>815</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>377</v>
+        <v>1059</v>
       </c>
       <c r="K138" s="4">
         <v>0</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1059</v>
+        <v>1216</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -17006,14 +17006,14 @@
       <c r="C139" s="4">
         <v>0</v>
       </c>
-      <c r="D139" s="4">
-        <v>0</v>
+      <c r="D139" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>1217</v>
+      <c r="F139" s="4">
+        <v>0</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>648</v>
@@ -17025,13 +17025,13 @@
         <v>904</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>157</v>
+        <v>1060</v>
       </c>
       <c r="K139" s="4">
         <v>0</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1060</v>
+        <v>1217</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -17045,16 +17045,16 @@
         <v>367</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1088</v>
+        <v>378</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>497</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1218</v>
+        <v>378</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>649</v>
@@ -17066,13 +17066,13 @@
         <v>850</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>157</v>
+        <v>1061</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>378</v>
+        <v>1088</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1061</v>
+        <v>1218</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -17088,14 +17088,14 @@
       <c r="C141" s="4">
         <v>0</v>
       </c>
-      <c r="D141" s="4">
-        <v>0</v>
+      <c r="D141" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>1208</v>
+      <c r="F141" s="4">
+        <v>0</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>650</v>
@@ -17107,13 +17107,13 @@
         <v>916</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>157</v>
+        <v>1062</v>
       </c>
       <c r="K141" s="4">
         <v>0</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>1062</v>
+        <v>1208</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>
@@ -17129,14 +17129,14 @@
       <c r="C142" s="4">
         <v>0</v>
       </c>
-      <c r="D142" s="4">
-        <v>0</v>
+      <c r="D142" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>1219</v>
+      <c r="F142" s="4">
+        <v>0</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>651</v>
@@ -17148,13 +17148,13 @@
         <v>917</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>157</v>
+        <v>1063</v>
       </c>
       <c r="K142" s="4">
         <v>0</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1063</v>
+        <v>1219</v>
       </c>
       <c r="M142" s="4">
         <v>0</v>
@@ -17168,16 +17168,16 @@
         <v>369</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1093</v>
+        <v>378</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>436</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1191</v>
+        <v>378</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>652</v>
@@ -17189,13 +17189,13 @@
         <v>918</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>157</v>
+        <v>1021</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>378</v>
+        <v>1093</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>1021</v>
+        <v>1191</v>
       </c>
       <c r="M143" s="4">
         <v>0</v>
@@ -17211,14 +17211,14 @@
       <c r="C144" s="4">
         <v>0</v>
       </c>
-      <c r="D144" s="4">
-        <v>0</v>
+      <c r="D144" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>1205</v>
+      <c r="F144" s="4">
+        <v>0</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>653</v>
@@ -17230,13 +17230,13 @@
         <v>919</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>157</v>
+        <v>1064</v>
       </c>
       <c r="K144" s="4">
         <v>0</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>1064</v>
+        <v>1205</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -17252,14 +17252,14 @@
       <c r="C145" s="4">
         <v>0</v>
       </c>
-      <c r="D145" s="4">
-        <v>0</v>
+      <c r="D145" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>1197</v>
+      <c r="F145" s="4">
+        <v>0</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>654</v>
@@ -17271,13 +17271,13 @@
         <v>827</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>157</v>
+        <v>1065</v>
       </c>
       <c r="K145" s="4">
         <v>0</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>1065</v>
+        <v>1197</v>
       </c>
       <c r="M145" s="4">
         <v>0</v>
@@ -17291,16 +17291,16 @@
         <v>372</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1085</v>
+        <v>378</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>459</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1220</v>
+        <v>927</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>655</v>
@@ -17312,13 +17312,13 @@
         <v>920</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>377</v>
+        <v>1066</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>927</v>
+        <v>1085</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>1066</v>
+        <v>1220</v>
       </c>
       <c r="M146" s="4">
         <v>0</v>
@@ -17334,14 +17334,14 @@
       <c r="C147" s="4">
         <v>0</v>
       </c>
-      <c r="D147" s="4">
-        <v>0</v>
+      <c r="D147" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>1209</v>
+      <c r="F147" s="4">
+        <v>0</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>656</v>
@@ -17353,13 +17353,13 @@
         <v>921</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>157</v>
+        <v>1067</v>
       </c>
       <c r="K147" s="4">
         <v>0</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>1067</v>
+        <v>1209</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
@@ -17375,14 +17375,14 @@
       <c r="C148" s="4">
         <v>0</v>
       </c>
-      <c r="D148" s="4">
-        <v>0</v>
+      <c r="D148" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>1221</v>
+      <c r="F148" s="4">
+        <v>0</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>657</v>
@@ -17394,13 +17394,13 @@
         <v>864</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>377</v>
+        <v>1068</v>
       </c>
       <c r="K148" s="4">
         <v>0</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>1068</v>
+        <v>1221</v>
       </c>
       <c r="M148" s="4">
         <v>0</v>
@@ -17414,16 +17414,16 @@
         <v>375</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1084</v>
+        <v>378</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>510</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1222</v>
+        <v>928</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>658</v>
@@ -17435,13 +17435,13 @@
         <v>922</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>377</v>
+        <v>1069</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>928</v>
+        <v>1084</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>1069</v>
+        <v>1222</v>
       </c>
       <c r="M149" s="4">
         <v>0</v>
@@ -17455,16 +17455,16 @@
         <v>376</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1086</v>
+        <v>378</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>479</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1223</v>
+        <v>923</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>659</v>
@@ -17476,13 +17476,13 @@
         <v>815</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>377</v>
+        <v>1070</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>923</v>
+        <v>1086</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>1070</v>
+        <v>1223</v>
       </c>
       <c r="M150" s="4">
         <v>0</v>

--- a/MatlabFiles/data.xlsx
+++ b/MatlabFiles/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1071">
   <si>
     <t>Sep 1. 2014</t>
   </si>
@@ -52,48 +52,6 @@
     <t>Sep 12. 2014</t>
   </si>
   <si>
-    <t>Sep 13. 2014</t>
-  </si>
-  <si>
-    <t>Sep 14. 2014</t>
-  </si>
-  <si>
-    <t>Sep 15. 2014</t>
-  </si>
-  <si>
-    <t>Sep 16. 2014</t>
-  </si>
-  <si>
-    <t>Sep 17. 2014</t>
-  </si>
-  <si>
-    <t>Sep 18. 2014</t>
-  </si>
-  <si>
-    <t>Sep 19. 2014</t>
-  </si>
-  <si>
-    <t>Sep 20. 2014</t>
-  </si>
-  <si>
-    <t>Sep 21. 2014</t>
-  </si>
-  <si>
-    <t>Sep 22. 2014</t>
-  </si>
-  <si>
-    <t>Sep 23. 2014</t>
-  </si>
-  <si>
-    <t>Sep 24. 2014</t>
-  </si>
-  <si>
-    <t>Sep 25. 2014</t>
-  </si>
-  <si>
-    <t>Sep 26. 2014</t>
-  </si>
-  <si>
     <t>Sep 27. 2014</t>
   </si>
   <si>
@@ -106,15 +64,6 @@
     <t>Sep 30. 2014</t>
   </si>
   <si>
-    <t>Oct 1. 2014</t>
-  </si>
-  <si>
-    <t>Oct 2. 2014</t>
-  </si>
-  <si>
-    <t>Oct 3. 2014</t>
-  </si>
-  <si>
     <t>Oct 4. 2014</t>
   </si>
   <si>
@@ -523,57 +472,21 @@
     <t>98.86%</t>
   </si>
   <si>
-    <t>99.87%</t>
-  </si>
-  <si>
-    <t>99.90%</t>
-  </si>
-  <si>
     <t>99.33%</t>
   </si>
   <si>
-    <t>99.54%</t>
-  </si>
-  <si>
     <t>99.64%</t>
   </si>
   <si>
-    <t>99.47%</t>
-  </si>
-  <si>
     <t>99.67%</t>
   </si>
   <si>
-    <t>99.29%</t>
-  </si>
-  <si>
-    <t>99.73%</t>
-  </si>
-  <si>
-    <t>99.68%</t>
-  </si>
-  <si>
-    <t>99.13%</t>
-  </si>
-  <si>
-    <t>98.58%</t>
-  </si>
-  <si>
     <t>99.32%</t>
   </si>
   <si>
     <t>98.83%</t>
   </si>
   <si>
-    <t>98.93%</t>
-  </si>
-  <si>
-    <t>98.31%</t>
-  </si>
-  <si>
-    <t>99.05%</t>
-  </si>
-  <si>
     <t>99.70%</t>
   </si>
   <si>
@@ -745,48 +658,6 @@
     <t>137.70</t>
   </si>
   <si>
-    <t>123.26</t>
-  </si>
-  <si>
-    <t>132.82</t>
-  </si>
-  <si>
-    <t>139.99</t>
-  </si>
-  <si>
-    <t>152.44</t>
-  </si>
-  <si>
-    <t>163.53</t>
-  </si>
-  <si>
-    <t>170.83</t>
-  </si>
-  <si>
-    <t>165.39</t>
-  </si>
-  <si>
-    <t>159.89</t>
-  </si>
-  <si>
-    <t>163.64</t>
-  </si>
-  <si>
-    <t>173.59</t>
-  </si>
-  <si>
-    <t>157.62</t>
-  </si>
-  <si>
-    <t>155.29</t>
-  </si>
-  <si>
-    <t>164.15</t>
-  </si>
-  <si>
-    <t>169.92</t>
-  </si>
-  <si>
     <t>182.70</t>
   </si>
   <si>
@@ -799,12 +670,6 @@
     <t>159.32</t>
   </si>
   <si>
-    <t>143.94</t>
-  </si>
-  <si>
-    <t>147.33</t>
-  </si>
-  <si>
     <t>157.18</t>
   </si>
   <si>
@@ -1178,51 +1043,6 @@
   </si>
   <si>
     <r>
-      <t>8.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>3.00</t>
     </r>
     <r>
@@ -1238,21 +1058,6 @@
   </si>
   <si>
     <r>
-      <t>4.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>759.00</t>
     </r>
     <r>
@@ -1418,204 +1223,6 @@
   </si>
   <si>
     <r>
-      <t>7,865.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9,156.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>8,704.00</t>
-  </si>
-  <si>
-    <r>
-      <t>5,406.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,679.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,196.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,878.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,694.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,569.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,284.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,006.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>982.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,151.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,097.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>774.00</t>
     </r>
     <r>
@@ -1676,51 +1283,6 @@
   </si>
   <si>
     <r>
-      <t>931.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,009.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>966.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>791.00</t>
     </r>
     <r>
@@ -3326,216 +2888,6 @@
   </si>
   <si>
     <r>
-      <t>362,619.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>475,471.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>493,946.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>359,585.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>186,031.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>157,668.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>123,836.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>114,510.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>106,234.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>91,102.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>62,767.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>58,924.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>74,087.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>71,937.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>56,629.00</t>
     </r>
     <r>
@@ -3584,51 +2936,6 @@
   </si>
   <si>
     <r>
-      <t>52,509.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>58,803.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>59,707.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>44,802.00</t>
     </r>
     <r>
@@ -5549,216 +4856,6 @@
   </si>
   <si>
     <r>
-      <t>23,103.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>30,764.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>37,359.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40,462.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>41,287.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>42,073.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>42,822.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>42,328.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40,798.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40,287.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>39,713.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>39,191.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>38,974.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>38,810.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>38,391.00</t>
     </r>
     <r>
@@ -5807,51 +4904,6 @@
   </si>
   <si>
     <r>
-      <t>37,898.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>37,839.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>37,910.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>37,840.00</t>
     </r>
     <r>
@@ -7715,141 +6767,6 @@
   </si>
   <si>
     <r>
-      <t>7,580.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7,748.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6,682.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3,027.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>830.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>748.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>608.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>565.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>374.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>316.00</t>
     </r>
     <r>
@@ -7879,36 +6796,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>422.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>428.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>295.00</t>
   </si>
   <si>
@@ -7958,36 +6845,6 @@
   </si>
   <si>
     <r>
-      <t>414.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>419.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>328.00</t>
     </r>
     <r>
@@ -9233,36 +8090,6 @@
   </si>
   <si>
     <r>
-      <t>20.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>17.00</t>
     </r>
     <r>
@@ -9475,192 +8302,6 @@
     </r>
   </si>
   <si>
-    <t>10,615.00</t>
-  </si>
-  <si>
-    <r>
-      <t>18,049.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24,356.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>27,246.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>27,556.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28,077.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28,325.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>23,130.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16,968.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>11,489.00</t>
-  </si>
-  <si>
-    <r>
-      <t>8,381.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7,344.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6,642.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6,179.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>5,551.00</t>
     </r>
@@ -9710,51 +8351,6 @@
   </si>
   <si>
     <r>
-      <t>4,507.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4,378.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4,257.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>4,283.00</t>
     </r>
     <r>
@@ -10459,39 +9055,18 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>0.10</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>0.18</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
     <t>0.23</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>0.20</t>
   </si>
   <si>
@@ -10558,48 +9133,9 @@
     <t>3.76</t>
   </si>
   <si>
-    <t>34.04</t>
-  </si>
-  <si>
-    <t>29.76</t>
-  </si>
-  <si>
-    <t>23.30</t>
-  </si>
-  <si>
-    <t>13.36</t>
-  </si>
-  <si>
-    <t>6.49</t>
-  </si>
-  <si>
     <t>5.22</t>
   </si>
   <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
     <t>2.02</t>
   </si>
   <si>
@@ -10610,15 +9146,6 @@
   </si>
   <si>
     <t>1.92</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.55</t>
   </si>
   <si>
     <t>2.09</t>
@@ -11319,8 +9846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11343,40 +9870,40 @@
     <row r="1" spans="1:13">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1225</v>
+        <v>1070</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1224</v>
+        <v>1069</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
@@ -11384,40 +9911,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>660</v>
+        <v>577</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>808</v>
+        <v>708</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>929</v>
+        <v>814</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1094</v>
+        <v>955</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
@@ -11425,40 +9952,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>809</v>
+        <v>709</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>930</v>
+        <v>815</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1095</v>
+        <v>956</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
@@ -11466,40 +9993,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>931</v>
+        <v>816</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>1071</v>
+        <v>939</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>1096</v>
+        <v>957</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -11507,40 +10034,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>810</v>
+        <v>710</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>932</v>
+        <v>817</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1097</v>
+        <v>958</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
@@ -11548,40 +10075,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>664</v>
+        <v>581</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>811</v>
+        <v>711</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>933</v>
+        <v>818</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>1098</v>
+        <v>959</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
@@ -11589,40 +10116,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>665</v>
+        <v>582</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>812</v>
+        <v>712</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>934</v>
+        <v>819</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>1099</v>
+        <v>960</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
@@ -11630,40 +10157,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>666</v>
+        <v>583</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>813</v>
+        <v>713</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>935</v>
+        <v>820</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1100</v>
+        <v>961</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -11671,40 +10198,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>667</v>
+        <v>584</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>812</v>
+        <v>712</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>936</v>
+        <v>821</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1101</v>
+        <v>962</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -11712,40 +10239,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>668</v>
+        <v>585</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>814</v>
+        <v>714</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>937</v>
+        <v>822</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1102</v>
+        <v>963</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
@@ -11753,40 +10280,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>669</v>
+        <v>586</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>815</v>
+        <v>715</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>938</v>
+        <v>823</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1103</v>
+        <v>964</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
@@ -11794,40 +10321,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>816</v>
+        <v>716</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>939</v>
+        <v>824</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>1104</v>
+        <v>965</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -11835,40 +10362,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>671</v>
+        <v>588</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>817</v>
+        <v>717</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>1072</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>1105</v>
+        <v>966</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
@@ -11876,40 +10403,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>672</v>
+        <v>589</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>818</v>
+        <v>720</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>1073</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>1106</v>
+        <v>968</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
@@ -11917,40 +10444,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>380</v>
+        <v>215</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>924</v>
+        <v>347</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>819</v>
+        <v>721</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>1074</v>
+        <v>827</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1107</v>
+        <v>969</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
@@ -11958,40 +10485,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>381</v>
+        <v>216</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>381</v>
+        <v>348</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>820</v>
+        <v>722</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>1075</v>
+        <v>828</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1108</v>
+        <v>970</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1">
@@ -11999,40 +10526,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>378</v>
+        <v>217</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>377</v>
+        <v>349</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>821</v>
+        <v>723</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>1076</v>
+        <v>829</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1109</v>
+        <v>971</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
@@ -12040,40 +10567,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>382</v>
+        <v>219</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>383</v>
+        <v>350</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>676</v>
+        <v>593</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>822</v>
+        <v>724</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>1077</v>
+        <v>830</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1110</v>
+        <v>972</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
@@ -12081,40 +10608,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>823</v>
+        <v>725</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>946</v>
+        <v>831</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1078</v>
+        <v>943</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>1111</v>
+        <v>973</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
@@ -12122,40 +10649,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>378</v>
+        <v>221</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>678</v>
+        <v>595</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>427</v>
+        <v>726</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>1079</v>
+        <v>832</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1112</v>
+        <v>974</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
@@ -12163,40 +10690,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>377</v>
+        <v>222</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>382</v>
+        <v>353</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>679</v>
+        <v>596</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>824</v>
+        <v>727</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>1080</v>
+        <v>833</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1113</v>
+        <v>975</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1">
@@ -12204,40 +10731,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>925</v>
+        <v>332</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>680</v>
+        <v>597</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>825</v>
+        <v>728</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>949</v>
+        <v>834</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1081</v>
+        <v>946</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1114</v>
+        <v>976</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
@@ -12245,40 +10772,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>224</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>382</v>
+        <v>355</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>681</v>
+        <v>598</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>826</v>
+        <v>729</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1082</v>
+        <v>835</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>1115</v>
+        <v>977</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
@@ -12286,40 +10813,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>682</v>
+        <v>599</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>827</v>
+        <v>730</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>951</v>
+        <v>836</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>1116</v>
+        <v>969</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
@@ -12327,40 +10854,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>683</v>
+        <v>600</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>828</v>
+        <v>731</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>952</v>
+        <v>837</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>1117</v>
+        <v>978</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1">
@@ -12368,40 +10895,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>829</v>
+        <v>732</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>953</v>
+        <v>838</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>1083</v>
+        <v>947</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>1118</v>
+        <v>979</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1">
@@ -12409,40 +10936,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>378</v>
+        <v>228</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>685</v>
+        <v>602</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>830</v>
+        <v>725</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>1083</v>
+        <v>839</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>1119</v>
+        <v>980</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
@@ -12450,40 +10977,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>378</v>
+        <v>229</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>686</v>
+        <v>603</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>831</v>
+        <v>733</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>1074</v>
+        <v>840</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>1120</v>
+        <v>981</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
@@ -12491,40 +11018,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>832</v>
+        <v>734</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>956</v>
+        <v>841</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>1121</v>
+        <v>982</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1">
@@ -12532,40 +11059,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>688</v>
+        <v>605</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>842</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>941</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1122</v>
+        <v>983</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
@@ -12573,40 +11100,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>689</v>
+        <v>606</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>834</v>
+        <v>736</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>958</v>
+        <v>843</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1123</v>
+        <v>984</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
@@ -12614,40 +11141,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>378</v>
+        <v>233</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>690</v>
+        <v>607</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>1077</v>
+        <v>844</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1124</v>
+        <v>985</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
@@ -12655,40 +11182,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>377</v>
+        <v>234</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>691</v>
+        <v>608</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>835</v>
+        <v>738</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>1084</v>
+        <v>845</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>1125</v>
+        <v>986</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
@@ -12696,40 +11223,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>692</v>
+        <v>609</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>836</v>
+        <v>739</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>961</v>
+        <v>846</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1126</v>
+        <v>987</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
@@ -12737,40 +11264,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>693</v>
+        <v>610</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>837</v>
+        <v>740</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>962</v>
+        <v>847</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1127</v>
+        <v>988</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
@@ -12778,40 +11305,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>838</v>
+        <v>741</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>963</v>
+        <v>848</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>1080</v>
+        <v>942</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1128</v>
+        <v>989</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
@@ -12819,40 +11346,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>695</v>
+        <v>612</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>839</v>
+        <v>742</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>964</v>
+        <v>849</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1129</v>
+        <v>990</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1">
@@ -12860,40 +11387,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>696</v>
+        <v>613</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>840</v>
+        <v>743</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>965</v>
+        <v>850</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1130</v>
+        <v>991</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
@@ -12901,40 +11428,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>697</v>
+        <v>614</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>841</v>
+        <v>744</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>966</v>
+        <v>851</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>1085</v>
+        <v>948</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1131</v>
+        <v>992</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1">
@@ -12942,40 +11469,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>698</v>
+        <v>615</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>842</v>
+        <v>745</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>967</v>
+        <v>852</v>
       </c>
       <c r="K40" s="4">
         <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>1132</v>
+        <v>993</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1">
@@ -12983,40 +11510,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>699</v>
+        <v>616</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>843</v>
+        <v>746</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>968</v>
+        <v>853</v>
       </c>
       <c r="K41" s="4">
         <v>0</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>1121</v>
+        <v>994</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1">
@@ -13024,40 +11551,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
+        <v>372</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>551</v>
+        <v>485</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>844</v>
+        <v>747</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>969</v>
+        <v>854</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>1133</v>
+        <v>995</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
@@ -13065,40 +11592,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>845</v>
+        <v>748</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>970</v>
+        <v>855</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>1086</v>
+        <v>949</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>1134</v>
+        <v>996</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
@@ -13106,40 +11633,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>702</v>
+        <v>619</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>838</v>
+        <v>749</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>971</v>
+        <v>856</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>1135</v>
+        <v>991</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1">
@@ -13147,40 +11674,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>703</v>
+        <v>620</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>846</v>
+        <v>733</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>857</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>942</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>1136</v>
+        <v>997</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
@@ -13188,40 +11715,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>555</v>
+        <v>489</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>704</v>
+        <v>621</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>847</v>
+        <v>750</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>973</v>
+        <v>858</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>1137</v>
+        <v>998</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
@@ -13229,40 +11756,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>705</v>
+        <v>622</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>848</v>
+        <v>751</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>974</v>
+        <v>859</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>1074</v>
+        <v>949</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>1138</v>
+        <v>999</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
@@ -13270,40 +11797,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
+        <v>378</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>706</v>
+        <v>623</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>849</v>
+        <v>752</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>860</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>950</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>1139</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1">
@@ -13311,40 +11838,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>707</v>
+        <v>624</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>850</v>
+        <v>753</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>976</v>
+        <v>861</v>
       </c>
       <c r="K49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>1140</v>
+        <v>1001</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
@@ -13352,40 +11879,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>559</v>
+        <v>493</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>708</v>
+        <v>625</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>851</v>
+        <v>754</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>977</v>
+        <v>862</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>1141</v>
+        <v>1002</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
@@ -13393,40 +11920,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
+        <v>381</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>709</v>
+        <v>626</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>852</v>
+        <v>708</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
+        <v>863</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>951</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>1142</v>
+        <v>1003</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
@@ -13434,40 +11961,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>710</v>
+        <v>627</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>853</v>
+        <v>755</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>979</v>
+        <v>864</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>1143</v>
+        <v>1004</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1">
@@ -13475,40 +12002,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>378</v>
+        <v>254</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>711</v>
+        <v>628</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>854</v>
+        <v>756</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>1078</v>
+        <v>865</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>1144</v>
+        <v>1005</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
@@ -13516,40 +12043,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>712</v>
+        <v>629</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>855</v>
+        <v>757</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
+        <v>866</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>952</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>1145</v>
+        <v>1006</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
@@ -13557,40 +12084,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>713</v>
+        <v>630</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>856</v>
+        <v>758</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>982</v>
+        <v>867</v>
       </c>
       <c r="K55" s="4">
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>1146</v>
+        <v>1007</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -13598,40 +12125,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>377</v>
+        <v>257</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>714</v>
+        <v>631</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>857</v>
+        <v>759</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>1087</v>
+        <v>868</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>1147</v>
+        <v>1008</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
@@ -13639,40 +12166,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>715</v>
+        <v>632</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>858</v>
+        <v>760</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>984</v>
+        <v>869</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>1148</v>
+        <v>997</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
@@ -13680,40 +12207,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>859</v>
+        <v>761</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>985</v>
+        <v>870</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>1149</v>
+        <v>1009</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
@@ -13721,40 +12248,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>717</v>
+        <v>634</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>860</v>
+        <v>762</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
+        <v>871</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>942</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>1150</v>
+        <v>967</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
@@ -13762,40 +12289,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>378</v>
+        <v>261</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>378</v>
+        <v>389</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>718</v>
+        <v>635</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>861</v>
+        <v>763</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>1088</v>
+        <v>872</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>1151</v>
+        <v>993</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1">
@@ -13803,40 +12330,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>719</v>
+        <v>636</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>862</v>
+        <v>764</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>988</v>
+        <v>873</v>
       </c>
       <c r="K61" s="4">
         <v>0</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>1146</v>
+        <v>1010</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1">
@@ -13844,40 +12371,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>571</v>
+        <v>505</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>720</v>
+        <v>637</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>846</v>
+        <v>765</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>989</v>
+        <v>874</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>1078</v>
+        <v>952</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>1152</v>
+        <v>1011</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
@@ -13885,40 +12412,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>721</v>
+        <v>638</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>863</v>
+        <v>756</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>990</v>
+        <v>875</v>
       </c>
       <c r="K63" s="4">
         <v>0</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>1153</v>
+        <v>1012</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
@@ -13926,40 +12453,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>378</v>
+        <v>265</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>377</v>
+        <v>392</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>722</v>
+        <v>639</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>864</v>
+        <v>741</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>1088</v>
+        <v>876</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>1154</v>
+        <v>1013</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
@@ -13967,40 +12494,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>378</v>
+        <v>266</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>378</v>
+        <v>341</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>723</v>
+        <v>640</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>865</v>
+        <v>719</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>1089</v>
+        <v>858</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>1155</v>
+        <v>1014</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" thickBot="1">
@@ -14008,40 +12535,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>724</v>
+        <v>641</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>866</v>
+        <v>730</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>993</v>
+        <v>877</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>1156</v>
+        <v>1015</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
@@ -14049,40 +12576,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>576</v>
+        <v>510</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>725</v>
+        <v>642</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>867</v>
+        <v>766</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>994</v>
+        <v>878</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>1157</v>
+        <v>1016</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1">
@@ -14090,40 +12617,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>377</v>
+        <v>269</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>377</v>
+        <v>395</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>577</v>
+        <v>511</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>726</v>
+        <v>643</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>808</v>
+        <v>767</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>1090</v>
+        <v>879</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>1158</v>
+        <v>1017</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1">
@@ -14131,40 +12658,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>727</v>
+        <v>644</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>868</v>
+        <v>768</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>996</v>
+        <v>880</v>
       </c>
       <c r="K69" s="4">
         <v>0</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>1159</v>
+        <v>1018</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1">
@@ -14172,40 +12699,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>449</v>
+        <v>365</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>728</v>
+        <v>645</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>869</v>
+        <v>769</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>997</v>
+        <v>881</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>1160</v>
+        <v>1019</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" thickBot="1">
@@ -14213,40 +12740,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>378</v>
+        <v>272</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>378</v>
+        <v>397</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>580</v>
+        <v>514</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>729</v>
+        <v>646</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>870</v>
+        <v>770</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>1091</v>
+        <v>882</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>1161</v>
+        <v>1020</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
@@ -14254,40 +12781,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>581</v>
+        <v>515</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>871</v>
+        <v>714</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>999</v>
+        <v>883</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>1162</v>
+        <v>1021</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
@@ -14295,40 +12822,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>872</v>
+        <v>716</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>1000</v>
+        <v>884</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>1163</v>
+        <v>1022</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" thickBot="1">
@@ -14336,40 +12863,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>732</v>
+        <v>649</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>873</v>
+        <v>771</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>1001</v>
+        <v>885</v>
       </c>
       <c r="K74" s="4">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>1152</v>
+        <v>1023</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1">
@@ -14377,40 +12904,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>874</v>
+        <v>772</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>1002</v>
+        <v>886</v>
       </c>
       <c r="K75" s="4">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>1164</v>
+        <v>996</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
@@ -14418,40 +12945,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>378</v>
+        <v>277</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>378</v>
+        <v>402</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>875</v>
+        <v>732</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>1078</v>
+        <v>887</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>1111</v>
+        <v>1024</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
@@ -14459,40 +12986,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>735</v>
+        <v>652</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>876</v>
+        <v>773</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>1004</v>
+        <v>888</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>1148</v>
+        <v>1025</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1">
@@ -14500,40 +13027,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>587</v>
+        <v>521</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>736</v>
+        <v>653</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>877</v>
+        <v>774</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>1005</v>
+        <v>889</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>1165</v>
+        <v>1026</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1">
@@ -14541,40 +13068,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>588</v>
+        <v>522</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>737</v>
+        <v>654</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>878</v>
+        <v>775</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>1006</v>
+        <v>890</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>1091</v>
+        <v>946</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>1166</v>
+        <v>1021</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
@@ -14582,40 +13109,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>589</v>
+        <v>523</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>869</v>
+        <v>776</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>1007</v>
+        <v>891</v>
       </c>
       <c r="K80" s="4">
         <v>0</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>1167</v>
+        <v>1027</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1">
@@ -14623,40 +13150,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>739</v>
+        <v>656</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>854</v>
+        <v>777</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>1008</v>
+        <v>892</v>
       </c>
       <c r="K81" s="4">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>1168</v>
+        <v>1028</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
@@ -14664,40 +13191,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>740</v>
+        <v>657</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>828</v>
+        <v>778</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>990</v>
+        <v>893</v>
       </c>
       <c r="K82" s="4">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>1169</v>
+        <v>1029</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
@@ -14705,40 +13232,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>741</v>
+        <v>658</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>843</v>
+        <v>738</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>1009</v>
+        <v>894</v>
       </c>
       <c r="K83" s="4">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>1170</v>
+        <v>1030</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
@@ -14746,40 +13273,40 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F84" s="4">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>742</v>
+        <v>659</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>879</v>
+        <v>779</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0</v>
+        <v>895</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>944</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>1171</v>
+        <v>1029</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
@@ -14787,40 +13314,40 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>594</v>
+        <v>528</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>880</v>
+        <v>780</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K85" s="4">
-        <v>0</v>
+        <v>896</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>940</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>1172</v>
+        <v>1031</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1">
@@ -14828,40 +13355,40 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>595</v>
+        <v>529</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>744</v>
+        <v>661</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>881</v>
+        <v>717</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>1012</v>
+        <v>897</v>
       </c>
       <c r="K86" s="4">
         <v>0</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>1173</v>
+        <v>1032</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
@@ -14869,40 +13396,40 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>745</v>
+        <v>662</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>882</v>
+        <v>714</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>1013</v>
+        <v>898</v>
       </c>
       <c r="K87" s="4">
         <v>0</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>1174</v>
+        <v>1033</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1">
@@ -14910,40 +13437,40 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>597</v>
+        <v>531</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>746</v>
+        <v>663</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>883</v>
+        <v>781</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1014</v>
+        <v>899</v>
       </c>
       <c r="K88" s="4">
         <v>0</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>1175</v>
+        <v>1034</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1">
@@ -14951,40 +13478,40 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>1015</v>
+        <v>900</v>
       </c>
       <c r="K89" s="4">
         <v>0</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>1176</v>
+        <v>1035</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1">
@@ -14992,40 +13519,40 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>599</v>
+        <v>533</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>748</v>
+        <v>665</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1016</v>
+        <v>901</v>
       </c>
       <c r="K90" s="4">
         <v>0</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>1177</v>
+        <v>1036</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
@@ -15033,40 +13560,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>749</v>
+        <v>666</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>884</v>
+        <v>783</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1017</v>
+        <v>902</v>
       </c>
       <c r="K91" s="4">
         <v>0</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>1178</v>
+        <v>989</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1">
@@ -15074,40 +13601,40 @@
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="F92" s="4">
-        <v>0</v>
+        <v>417</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>601</v>
+        <v>535</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>885</v>
+        <v>725</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>1018</v>
+        <v>900</v>
       </c>
       <c r="K92" s="4">
         <v>0</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>1151</v>
+        <v>958</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1">
@@ -15115,40 +13642,40 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>751</v>
+        <v>668</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>845</v>
+        <v>371</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1019</v>
+        <v>903</v>
       </c>
       <c r="K93" s="4">
         <v>0</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>1179</v>
+        <v>1037</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
@@ -15156,40 +13683,40 @@
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
+        <v>419</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>603</v>
+        <v>537</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>752</v>
+        <v>669</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>886</v>
+        <v>784</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K94" s="4">
-        <v>0</v>
+        <v>904</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>950</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>1180</v>
+        <v>1038</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
@@ -15197,40 +13724,40 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>753</v>
+        <v>670</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>887</v>
+        <v>780</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K95" s="4">
-        <v>0</v>
+        <v>905</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>947</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>1181</v>
+        <v>1039</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1">
@@ -15238,40 +13765,40 @@
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>888</v>
+        <v>785</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1022</v>
+        <v>906</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>1085</v>
+        <v>943</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>1176</v>
+        <v>1040</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1">
@@ -15279,40 +13806,40 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C97" s="4">
         <v>0</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>755</v>
+        <v>671</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>889</v>
+        <v>786</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1023</v>
+        <v>907</v>
       </c>
       <c r="K97" s="4">
         <v>0</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>1182</v>
+        <v>1041</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1">
@@ -15320,40 +13847,40 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C98" s="4">
         <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>756</v>
+        <v>672</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>890</v>
+        <v>787</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1024</v>
+        <v>908</v>
       </c>
       <c r="K98" s="4">
         <v>0</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>1183</v>
+        <v>1042</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1">
@@ -15361,40 +13888,40 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>757</v>
+        <v>673</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>891</v>
+        <v>788</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1025</v>
+        <v>909</v>
       </c>
       <c r="K99" s="4">
         <v>0</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>1184</v>
+        <v>1043</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
@@ -15402,40 +13929,40 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C100" s="4">
         <v>0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>474</v>
+        <v>338</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>758</v>
+        <v>674</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>851</v>
+        <v>789</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1026</v>
+        <v>910</v>
       </c>
       <c r="K100" s="4">
         <v>0</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>1185</v>
+        <v>1044</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1">
@@ -15443,40 +13970,40 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>378</v>
+        <v>301</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>378</v>
+        <v>424</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>759</v>
+        <v>675</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>892</v>
+        <v>790</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>1082</v>
+        <v>911</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1184</v>
+        <v>1004</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1">
@@ -15484,40 +14011,40 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>378</v>
+        <v>302</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>377</v>
+        <v>425</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>760</v>
+        <v>676</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>893</v>
+        <v>782</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>1072</v>
+        <v>912</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1186</v>
+        <v>983</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1">
@@ -15525,40 +14052,40 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="C103" s="4">
         <v>0</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>761</v>
+        <v>677</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>1029</v>
+        <v>913</v>
       </c>
       <c r="K103" s="4">
         <v>0</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>1187</v>
+        <v>1045</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1">
@@ -15566,40 +14093,40 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C104" s="4">
-        <v>0</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E104" s="4" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="F104" s="4">
         <v>0</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>762</v>
+        <v>678</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1030</v>
+        <v>914</v>
       </c>
       <c r="K104" s="4">
         <v>0</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1188</v>
+        <v>1046</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75" thickBot="1">
@@ -15607,40 +14134,40 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="F105" s="4">
         <v>0</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>763</v>
+        <v>679</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>894</v>
+        <v>793</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>1031</v>
+        <v>915</v>
       </c>
       <c r="K105" s="4">
         <v>0</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>1189</v>
+        <v>1047</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1">
@@ -15648,40 +14175,40 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>764</v>
+        <v>680</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>861</v>
+        <v>734</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>1032</v>
+        <v>916</v>
       </c>
       <c r="K106" s="4">
         <v>0</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>223</v>
+        <v>1048</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1">
@@ -15689,40 +14216,40 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C107" s="4">
         <v>0</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="F107" s="4">
         <v>0</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>765</v>
+        <v>681</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>1033</v>
+        <v>882</v>
       </c>
       <c r="K107" s="4">
         <v>0</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>224</v>
+        <v>1049</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1">
@@ -15730,40 +14257,40 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="F108" s="4">
         <v>0</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>766</v>
+        <v>682</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>896</v>
+        <v>795</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>1034</v>
+        <v>917</v>
       </c>
       <c r="K108" s="4">
         <v>0</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>225</v>
+        <v>1050</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1">
@@ -15771,40 +14298,40 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>378</v>
+        <v>430</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
       <c r="H109" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="I109" s="4" t="s">
-        <v>838</v>
-      </c>
       <c r="J109" s="4" t="s">
-        <v>1032</v>
+        <v>918</v>
       </c>
       <c r="K109" s="4">
         <v>0</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="M109" s="4" t="s">
-        <v>165</v>
+        <v>1051</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1">
@@ -15812,40 +14339,40 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="F110" s="4">
         <v>0</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>768</v>
+        <v>684</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>437</v>
+        <v>796</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>1035</v>
+        <v>919</v>
       </c>
       <c r="K110" s="4">
         <v>0</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="M110" s="4" t="s">
-        <v>226</v>
+        <v>1052</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1">
@@ -15853,40 +14380,40 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>378</v>
+        <v>311</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>378</v>
+        <v>432</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>769</v>
+        <v>685</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>897</v>
+        <v>797</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>1089</v>
+        <v>882</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>161</v>
+        <v>1053</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1">
@@ -15894,40 +14421,40 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>378</v>
+        <v>312</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>382</v>
+        <v>433</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>770</v>
+        <v>686</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>893</v>
+        <v>726</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>1086</v>
+        <v>888</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M112" s="4" t="s">
-        <v>175</v>
+        <v>1054</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1">
@@ -15935,40 +14462,40 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>378</v>
+        <v>313</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>378</v>
+        <v>434</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>898</v>
+        <v>798</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>1080</v>
+        <v>920</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>161</v>
+        <v>1055</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1">
@@ -15976,40 +14503,40 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F114" s="4">
         <v>0</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>623</v>
+        <v>557</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>771</v>
+        <v>688</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>899</v>
+        <v>799</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>1039</v>
+        <v>920</v>
       </c>
       <c r="K114" s="4">
         <v>0</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>161</v>
+        <v>1056</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1">
@@ -16017,40 +14544,40 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F115" s="4">
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>772</v>
+        <v>689</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>900</v>
+        <v>755</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K115" s="4">
-        <v>0</v>
+        <v>921</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>939</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>227</v>
+        <v>1057</v>
+      </c>
+      <c r="M115" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1">
@@ -16058,40 +14585,40 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="F116" s="4">
         <v>0</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>773</v>
+        <v>690</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>901</v>
+        <v>800</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>1041</v>
+        <v>922</v>
       </c>
       <c r="K116" s="4">
         <v>0</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>161</v>
+        <v>989</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1">
@@ -16099,40 +14626,40 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="F117" s="4">
         <v>0</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>626</v>
+        <v>560</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>774</v>
+        <v>691</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>902</v>
+        <v>800</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>1042</v>
+        <v>923</v>
       </c>
       <c r="K117" s="4">
         <v>0</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>228</v>
+        <v>1058</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1">
@@ -16140,40 +14667,40 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="F118" s="4">
         <v>0</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>627</v>
+        <v>561</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>775</v>
+        <v>692</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>903</v>
+        <v>801</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>1043</v>
+        <v>924</v>
       </c>
       <c r="K118" s="4">
         <v>0</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>205</v>
+        <v>1005</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1">
@@ -16181,40 +14708,40 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C119" s="4">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F119" s="4">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>776</v>
+        <v>693</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>895</v>
+        <v>801</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="K119" s="4">
-        <v>0</v>
+        <v>925</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>953</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="M119" s="4" t="s">
-        <v>229</v>
+        <v>1059</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1">
@@ -16222,40 +14749,40 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="F120" s="4">
         <v>0</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>777</v>
+        <v>694</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>904</v>
+        <v>802</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>1045</v>
+        <v>926</v>
       </c>
       <c r="K120" s="4">
         <v>0</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>161</v>
+        <v>1060</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1">
@@ -16263,40 +14790,40 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="F121" s="4">
         <v>0</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>905</v>
+        <v>715</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>1046</v>
+        <v>927</v>
       </c>
       <c r="K121" s="4">
         <v>0</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>164</v>
+        <v>1061</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="15.75" thickBot="1">
@@ -16304,40 +14831,40 @@
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="F122" s="4">
         <v>0</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>631</v>
+        <v>565</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>779</v>
+        <v>696</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>906</v>
+        <v>791</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>1047</v>
+        <v>928</v>
       </c>
       <c r="K122" s="4">
         <v>0</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M122" s="4" t="s">
-        <v>161</v>
+        <v>1062</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15.75" thickBot="1">
@@ -16345,37 +14872,37 @@
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C123" s="4">
-        <v>0</v>
+        <v>322</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F123" s="4">
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>780</v>
+        <v>697</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>847</v>
+        <v>737</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K123" s="4">
-        <v>0</v>
+        <v>929</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1203</v>
+        <v>1063</v>
       </c>
       <c r="M123" s="4">
         <v>0</v>
@@ -16386,37 +14913,37 @@
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="F124" s="4">
         <v>0</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>781</v>
+        <v>698</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>907</v>
+        <v>803</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="K124" s="4">
         <v>0</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>1204</v>
+        <v>1053</v>
       </c>
       <c r="M124" s="4">
         <v>0</v>
@@ -16427,37 +14954,37 @@
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="F125" s="4">
         <v>0</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>782</v>
+        <v>699</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>908</v>
+        <v>804</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>1049</v>
+        <v>931</v>
       </c>
       <c r="K125" s="4">
         <v>0</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1205</v>
+        <v>1064</v>
       </c>
       <c r="M125" s="4">
         <v>0</v>
@@ -16468,37 +14995,37 @@
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C126" s="4">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F126" s="4">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>635</v>
+        <v>569</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>783</v>
+        <v>700</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>880</v>
+        <v>805</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K126" s="4">
-        <v>0</v>
+        <v>889</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1206</v>
+        <v>1036</v>
       </c>
       <c r="M126" s="4">
         <v>0</v>
@@ -16509,37 +15036,37 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="F127" s="4">
         <v>0</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>784</v>
+        <v>701</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>909</v>
+        <v>806</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>1051</v>
+        <v>932</v>
       </c>
       <c r="K127" s="4">
         <v>0</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1207</v>
+        <v>1050</v>
       </c>
       <c r="M127" s="4">
         <v>0</v>
@@ -16550,37 +15077,37 @@
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="F128" s="4">
         <v>0</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>785</v>
+        <v>702</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>910</v>
+        <v>718</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>1014</v>
+        <v>933</v>
       </c>
       <c r="K128" s="4">
         <v>0</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1208</v>
+        <v>1042</v>
       </c>
       <c r="M128" s="4">
         <v>0</v>
@@ -16591,37 +15118,37 @@
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C129" s="4">
-        <v>0</v>
+        <v>327</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F129" s="4">
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>812</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>786</v>
+        <v>703</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K129" s="4">
-        <v>0</v>
+        <v>934</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>946</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1209</v>
+        <v>1065</v>
       </c>
       <c r="M129" s="4">
         <v>0</v>
@@ -16632,37 +15159,37 @@
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="F130" s="4">
         <v>0</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>787</v>
+        <v>704</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>911</v>
+        <v>808</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>1052</v>
+        <v>935</v>
       </c>
       <c r="K130" s="4">
         <v>0</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1210</v>
+        <v>1054</v>
       </c>
       <c r="M130" s="4">
         <v>0</v>
@@ -16673,37 +15200,37 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F131" s="4">
         <v>0</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>640</v>
+        <v>574</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>788</v>
+        <v>705</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>912</v>
+        <v>751</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>1052</v>
+        <v>936</v>
       </c>
       <c r="K131" s="4">
         <v>0</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>1211</v>
+        <v>1066</v>
       </c>
       <c r="M131" s="4">
         <v>0</v>
@@ -16714,37 +15241,37 @@
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>926</v>
+        <v>813</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>641</v>
+        <v>575</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>789</v>
+        <v>706</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>868</v>
+        <v>809</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>1053</v>
+        <v>937</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>1071</v>
+        <v>945</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1212</v>
+        <v>1067</v>
       </c>
       <c r="M132" s="4">
         <v>0</v>
@@ -16755,37 +15282,37 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C133" s="4">
-        <v>0</v>
+        <v>331</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="F133" s="4">
-        <v>0</v>
+        <v>413</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>810</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>790</v>
+        <v>707</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>913</v>
+        <v>715</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K133" s="4">
-        <v>0</v>
+        <v>938</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>947</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1144</v>
+        <v>1068</v>
       </c>
       <c r="M133" s="4">
         <v>0</v>
@@ -16795,741 +15322,44 @@
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C134" s="4">
-        <v>0</v>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F134" s="4">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>643</v>
+        <v>133</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>791</v>
+        <v>133</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>913</v>
+        <v>133</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K134" s="4">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>1213</v>
+        <v>133</v>
       </c>
       <c r="M134" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A135" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C135" s="4">
-        <v>0</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F135" s="4">
-        <v>0</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K135" s="4">
-        <v>0</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="M135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A136" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="M136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A137" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C137" s="4">
-        <v>0</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F137" s="4">
-        <v>0</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K137" s="4">
-        <v>0</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="M137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A138" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C138" s="4">
-        <v>0</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F138" s="4">
-        <v>0</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K138" s="4">
-        <v>0</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A139" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C139" s="4">
-        <v>0</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F139" s="4">
-        <v>0</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K139" s="4">
-        <v>0</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A140" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A141" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C141" s="4">
-        <v>0</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F141" s="4">
-        <v>0</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K141" s="4">
-        <v>0</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A142" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C142" s="4">
-        <v>0</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F142" s="4">
-        <v>0</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K142" s="4">
-        <v>0</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A143" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A144" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C144" s="4">
-        <v>0</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="F144" s="4">
-        <v>0</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K144" s="4">
-        <v>0</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A145" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C145" s="4">
-        <v>0</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F145" s="4">
-        <v>0</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K145" s="4">
-        <v>0</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A146" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C147" s="4">
-        <v>0</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K147" s="4">
-        <v>0</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="M147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A148" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C148" s="4">
-        <v>0</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="F148" s="4">
-        <v>0</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K148" s="4">
-        <v>0</v>
-      </c>
-      <c r="L148" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="L149" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A150" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="M150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="4">
-        <v>0</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L151" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="13:13">
       <c r="M152" s="2"/>
     </row>
   </sheetData>
